--- a/Code/Results/Cases/Case_2_48/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_48/res_line/pl_mw.xlsx
@@ -412,34 +412,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.712403597546086</v>
+        <v>3.712403597546142</v>
       </c>
       <c r="C2">
-        <v>1.315496272810776</v>
+        <v>1.315496272810549</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.08510079169026952</v>
+        <v>0.08510079169026241</v>
       </c>
       <c r="F2">
-        <v>2.346567120924448</v>
+        <v>2.346567120924433</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.47200860018836</v>
+        <v>1.472008600188374</v>
       </c>
       <c r="I2">
-        <v>0.2125246517351123</v>
+        <v>0.2125246517351442</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3450252138366423</v>
+        <v>0.345025213836621</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.191161470689508</v>
+        <v>3.191161470689622</v>
       </c>
       <c r="C3">
-        <v>1.126954449736161</v>
+        <v>1.126954449736616</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.07366267107537183</v>
+        <v>0.07366267107531854</v>
       </c>
       <c r="F3">
-        <v>2.030133864899824</v>
+        <v>2.03013386489981</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1.314588187706335</v>
+        <v>1.31458818770632</v>
       </c>
       <c r="I3">
-        <v>0.1946743639046957</v>
+        <v>0.1946743639046886</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2969509333840534</v>
+        <v>0.2969509333840605</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -491,16 +491,16 @@
         <v>2.877077212138317</v>
       </c>
       <c r="C4">
-        <v>1.013828488942693</v>
+        <v>1.013828488943119</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.06669857509781707</v>
+        <v>0.06669857509784194</v>
       </c>
       <c r="F4">
-        <v>1.841057863696207</v>
+        <v>1.841057863696221</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,13 +509,13 @@
         <v>1.22242029627337</v>
       </c>
       <c r="I4">
-        <v>0.1845009242640785</v>
+        <v>0.1845009242640892</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2679132069706398</v>
+        <v>0.2679132069706256</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,34 +526,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.750337530693628</v>
+        <v>2.750337530693685</v>
       </c>
       <c r="C5">
-        <v>0.968283489026561</v>
+        <v>0.9682834890268737</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.06387259751986818</v>
+        <v>0.06387259751992147</v>
       </c>
       <c r="F5">
-        <v>1.765141469741707</v>
+        <v>1.765141469741721</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1.185851235267592</v>
+        <v>1.185851235267606</v>
       </c>
       <c r="I5">
-        <v>0.1805283982521146</v>
+        <v>0.180528398252136</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2561803289170541</v>
+        <v>0.2561803289170754</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.729361435425687</v>
+        <v>2.729361435425858</v>
       </c>
       <c r="C6">
-        <v>0.9607513245873065</v>
+        <v>0.9607513245870223</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.06340398881268783</v>
+        <v>0.06340398881267006</v>
       </c>
       <c r="F6">
-        <v>1.752599214039122</v>
+        <v>1.752599214039137</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,13 +585,13 @@
         <v>1.17983498858969</v>
       </c>
       <c r="I6">
-        <v>0.1798785606691986</v>
+        <v>0.1798785606692022</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2542375888366379</v>
+        <v>0.2542375888366593</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -605,31 +605,31 @@
         <v>2.875363192576003</v>
       </c>
       <c r="C7">
-        <v>1.013212142215252</v>
+        <v>1.013212142215764</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.06666041820207269</v>
+        <v>0.06666041820207624</v>
       </c>
       <c r="F7">
-        <v>1.840029660823973</v>
+        <v>1.840029660823987</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1.221923277007363</v>
+        <v>1.221923277007349</v>
       </c>
       <c r="I7">
-        <v>0.1844466784137815</v>
+        <v>0.184446678413785</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2677545929568481</v>
+        <v>0.2677545929568694</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,34 +640,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.531284708139879</v>
+        <v>3.531284708139594</v>
       </c>
       <c r="C8">
-        <v>1.249869597388624</v>
+        <v>1.24986959738834</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.08114286772535095</v>
+        <v>0.08114286772531543</v>
       </c>
       <c r="F8">
-        <v>2.236265567487962</v>
+        <v>2.236265567488005</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1.416710122587276</v>
+        <v>1.41671012258729</v>
       </c>
       <c r="I8">
-        <v>0.2061908470441267</v>
+        <v>0.2061908470441125</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3283365123238013</v>
+        <v>0.3283365123237942</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.877683352786846</v>
+        <v>4.877683352786505</v>
       </c>
       <c r="C9">
-        <v>1.740580032093249</v>
+        <v>1.740580032093021</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1101577540151304</v>
+        <v>0.1101577540151375</v>
       </c>
       <c r="F9">
         <v>3.063795186298734</v>
@@ -699,13 +699,13 @@
         <v>1.841461494707147</v>
       </c>
       <c r="I9">
-        <v>0.2563616288859549</v>
+        <v>0.2563616288859265</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.4520065787003702</v>
+        <v>0.452006578700356</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,34 +716,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.924694527499469</v>
+        <v>5.924694527499526</v>
       </c>
       <c r="C10">
-        <v>2.126720416573619</v>
+        <v>2.126720416573846</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1320851576931688</v>
+        <v>0.1320851576931616</v>
       </c>
       <c r="F10">
-        <v>3.717377344972959</v>
+        <v>3.717377344972931</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2.191298396395297</v>
+        <v>2.191298396395283</v>
       </c>
       <c r="I10">
-        <v>0.2999568622259829</v>
+        <v>0.2999568622259758</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.5475654327136468</v>
+        <v>0.5475654327136326</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -757,13 +757,13 @@
         <v>6.419440280271374</v>
       </c>
       <c r="C11">
-        <v>2.310571171508172</v>
+        <v>2.310571171508457</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1422553346104642</v>
+        <v>0.14225533461045</v>
       </c>
       <c r="F11">
         <v>4.028646437340257</v>
@@ -772,16 +772,16 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2.361882064415823</v>
+        <v>2.361882064415866</v>
       </c>
       <c r="I11">
-        <v>0.3218595057396527</v>
+        <v>0.3218595057396456</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.5925327220168768</v>
+        <v>0.5925327220168626</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.610049317191056</v>
+        <v>6.610049317191113</v>
       </c>
       <c r="C12">
-        <v>2.381641774991124</v>
+        <v>2.381641774991181</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1461407257639138</v>
+        <v>0.1461407257639102</v>
       </c>
       <c r="F12">
         <v>4.148933138244331</v>
@@ -810,16 +810,16 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>2.428456383707527</v>
+        <v>2.428456383707513</v>
       </c>
       <c r="I12">
-        <v>0.3305153711951831</v>
+        <v>0.3305153711952045</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.6098244501199019</v>
+        <v>0.6098244501199375</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,34 +830,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.568842331958251</v>
+        <v>6.568842331958081</v>
       </c>
       <c r="C13">
-        <v>2.366266013100812</v>
+        <v>2.366266013101097</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1453023105969216</v>
+        <v>0.14530231059695</v>
       </c>
       <c r="F13">
-        <v>4.122912454869521</v>
+        <v>4.122912454869493</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>2.41402443629309</v>
+        <v>2.414024436293118</v>
       </c>
       <c r="I13">
-        <v>0.3286339161440921</v>
+        <v>0.328633916144085</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.6060877759743093</v>
+        <v>0.606087775974288</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.435052574198778</v>
+        <v>6.435052574198721</v>
       </c>
       <c r="C14">
-        <v>2.316387369856784</v>
+        <v>2.316387369857068</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1425742651057398</v>
+        <v>0.1425742651057007</v>
       </c>
       <c r="F14">
         <v>4.038491461661778</v>
@@ -886,16 +886,16 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>2.367317392751147</v>
+        <v>2.367317392751119</v>
       </c>
       <c r="I14">
-        <v>0.3225639620989114</v>
+        <v>0.3225639620989256</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.593949730872545</v>
+        <v>0.5939497308725308</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,34 +906,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.353546992672534</v>
+        <v>6.353546992672364</v>
       </c>
       <c r="C15">
-        <v>2.286033148240051</v>
+        <v>2.286033148239767</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1409079045498807</v>
+        <v>0.1409079045498736</v>
       </c>
       <c r="F15">
-        <v>3.987109225528457</v>
+        <v>3.9871092255284</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>2.338976553593838</v>
+        <v>2.33897655359381</v>
       </c>
       <c r="I15">
-        <v>0.3188951904471224</v>
+        <v>0.3188951904471011</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.5865507433102906</v>
+        <v>0.5865507433102479</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,34 +944,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.892782243881868</v>
+        <v>5.892782243881925</v>
       </c>
       <c r="C16">
-        <v>2.114892262610965</v>
+        <v>2.114892262611136</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1314249415560482</v>
+        <v>0.1314249415560624</v>
       </c>
       <c r="F16">
-        <v>3.697349273850023</v>
+        <v>3.697349273850051</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>2.180407598709223</v>
+        <v>2.180407598709209</v>
       </c>
       <c r="I16">
-        <v>0.2985723185283362</v>
+        <v>0.2985723185283433</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.5446607705910367</v>
+        <v>0.5446607705910509</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,34 +982,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.615240355621836</v>
+        <v>5.61524035562195</v>
       </c>
       <c r="C17">
-        <v>2.012178752828277</v>
+        <v>2.012178752827822</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1256615143838467</v>
+        <v>0.1256615143838502</v>
       </c>
       <c r="F17">
-        <v>3.523433294220723</v>
+        <v>3.523433294220695</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>2.086278606335739</v>
+        <v>2.086278606335725</v>
       </c>
       <c r="I17">
-        <v>0.2866768369553512</v>
+        <v>0.286676836955408</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.5193777581717143</v>
+        <v>0.5193777581717285</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.457300329375357</v>
+        <v>5.457300329375641</v>
       </c>
       <c r="C18">
-        <v>1.953852793228862</v>
+        <v>1.953852793228691</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.122364511030657</v>
+        <v>0.1223645110306109</v>
       </c>
       <c r="F18">
         <v>3.424686192438969</v>
@@ -1041,13 +1041,13 @@
         <v>2.03319177203096</v>
       </c>
       <c r="I18">
-        <v>0.2800252798684042</v>
+        <v>0.2800252798684255</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.5049731945967224</v>
+        <v>0.5049731945967011</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1061,16 +1061,16 @@
         <v>5.404099009692345</v>
       </c>
       <c r="C19">
-        <v>1.934226362874142</v>
+        <v>1.934226362874199</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1212511176790798</v>
+        <v>0.1212511176790407</v>
       </c>
       <c r="F19">
-        <v>3.39146146374236</v>
+        <v>3.391461463742331</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,13 +1079,13 @@
         <v>2.015389311225235</v>
       </c>
       <c r="I19">
-        <v>0.2778041391081842</v>
+        <v>0.277804139108234</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.5001183501099931</v>
+        <v>0.5001183501099788</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,34 +1096,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.644605745957278</v>
+        <v>5.644605745957222</v>
       </c>
       <c r="C20">
-        <v>2.023033136573247</v>
+        <v>2.023033136572906</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1262731403390625</v>
+        <v>0.1262731403390198</v>
       </c>
       <c r="F20">
-        <v>3.541811243152978</v>
+        <v>3.541811243152949</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>2.09618753609152</v>
+        <v>2.096187536091534</v>
       </c>
       <c r="I20">
-        <v>0.2879230028410049</v>
+        <v>0.2879230028410191</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.5220546193511169</v>
+        <v>0.5220546193510813</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1137,16 +1137,16 @@
         <v>6.47425597826998</v>
       </c>
       <c r="C21">
-        <v>2.330996130790311</v>
+        <v>2.330996130790425</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1433745777296949</v>
+        <v>0.1433745777297091</v>
       </c>
       <c r="F21">
-        <v>4.063218745261793</v>
+        <v>4.06321874526185</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,13 +1155,13 @@
         <v>2.380979724559737</v>
       </c>
       <c r="I21">
-        <v>0.3243364567959688</v>
+        <v>0.324336456795983</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.5975073847663097</v>
+        <v>0.5975073847662884</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,10 +1172,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.035853958682424</v>
+        <v>7.035853958682367</v>
       </c>
       <c r="C22">
-        <v>2.54089056024543</v>
+        <v>2.540890560244861</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>2.57884209057319</v>
+        <v>2.578842090573161</v>
       </c>
       <c r="I22">
-        <v>0.3502840472700512</v>
+        <v>0.3502840472700299</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.648385992511578</v>
+        <v>0.6483859925115851</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,34 +1210,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.734112631351309</v>
+        <v>6.734112631351479</v>
       </c>
       <c r="C23">
-        <v>2.427971817375465</v>
+        <v>2.427971817375123</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1486597959008762</v>
+        <v>0.1486597959008655</v>
       </c>
       <c r="F23">
-        <v>4.227327860597001</v>
+        <v>4.227327860596972</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>2.472037659566269</v>
+        <v>2.472037659566297</v>
       </c>
       <c r="I23">
-        <v>0.3362137359852468</v>
+        <v>0.3362137359852184</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.6210693864265906</v>
+        <v>0.6210693864265338</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,34 +1248,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.631324643384801</v>
+        <v>5.631324643384971</v>
       </c>
       <c r="C24">
-        <v>2.018123630008404</v>
+        <v>2.018123630008915</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1259965733986981</v>
+        <v>0.1259965733987158</v>
       </c>
       <c r="F24">
-        <v>3.533498741570412</v>
+        <v>3.53349874157044</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>2.091704527548657</v>
+        <v>2.091704527548643</v>
       </c>
       <c r="I24">
-        <v>0.2873590324514907</v>
+        <v>0.287359032451505</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.5208440059752064</v>
+        <v>0.5208440059752135</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.505028276015707</v>
+        <v>4.50502827601548</v>
       </c>
       <c r="C25">
         <v>1.604102693281163</v>
@@ -1295,25 +1295,25 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1022201825728928</v>
+        <v>0.1022201825728963</v>
       </c>
       <c r="F25">
-        <v>2.833121713105669</v>
+        <v>2.833121713105697</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>1.720877605778639</v>
+        <v>1.720877605778668</v>
       </c>
       <c r="I25">
-        <v>0.2417837239184308</v>
+        <v>0.2417837239183882</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.4178664490694857</v>
+        <v>0.4178664490694715</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_48/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_48/res_line/pl_mw.xlsx
@@ -412,34 +412,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.712403597546142</v>
+        <v>3.712403597546086</v>
       </c>
       <c r="C2">
-        <v>1.315496272810549</v>
+        <v>1.315496272810776</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.08510079169026241</v>
+        <v>0.08510079169026952</v>
       </c>
       <c r="F2">
-        <v>2.346567120924433</v>
+        <v>2.346567120924448</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.472008600188374</v>
+        <v>1.47200860018836</v>
       </c>
       <c r="I2">
-        <v>0.2125246517351442</v>
+        <v>0.2125246517351123</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.345025213836621</v>
+        <v>0.3450252138366423</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.191161470689622</v>
+        <v>3.191161470689508</v>
       </c>
       <c r="C3">
-        <v>1.126954449736616</v>
+        <v>1.126954449736161</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.07366267107531854</v>
+        <v>0.07366267107537183</v>
       </c>
       <c r="F3">
-        <v>2.03013386489981</v>
+        <v>2.030133864899824</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1.31458818770632</v>
+        <v>1.314588187706335</v>
       </c>
       <c r="I3">
-        <v>0.1946743639046886</v>
+        <v>0.1946743639046957</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2969509333840605</v>
+        <v>0.2969509333840534</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -491,16 +491,16 @@
         <v>2.877077212138317</v>
       </c>
       <c r="C4">
-        <v>1.013828488943119</v>
+        <v>1.013828488942693</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.06669857509784194</v>
+        <v>0.06669857509781707</v>
       </c>
       <c r="F4">
-        <v>1.841057863696221</v>
+        <v>1.841057863696207</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,13 +509,13 @@
         <v>1.22242029627337</v>
       </c>
       <c r="I4">
-        <v>0.1845009242640892</v>
+        <v>0.1845009242640785</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2679132069706256</v>
+        <v>0.2679132069706398</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,34 +526,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.750337530693685</v>
+        <v>2.750337530693628</v>
       </c>
       <c r="C5">
-        <v>0.9682834890268737</v>
+        <v>0.968283489026561</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.06387259751992147</v>
+        <v>0.06387259751986818</v>
       </c>
       <c r="F5">
-        <v>1.765141469741721</v>
+        <v>1.765141469741707</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1.185851235267606</v>
+        <v>1.185851235267592</v>
       </c>
       <c r="I5">
-        <v>0.180528398252136</v>
+        <v>0.1805283982521146</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2561803289170754</v>
+        <v>0.2561803289170541</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.729361435425858</v>
+        <v>2.729361435425687</v>
       </c>
       <c r="C6">
-        <v>0.9607513245870223</v>
+        <v>0.9607513245873065</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.06340398881267006</v>
+        <v>0.06340398881268783</v>
       </c>
       <c r="F6">
-        <v>1.752599214039137</v>
+        <v>1.752599214039122</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,13 +585,13 @@
         <v>1.17983498858969</v>
       </c>
       <c r="I6">
-        <v>0.1798785606692022</v>
+        <v>0.1798785606691986</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2542375888366593</v>
+        <v>0.2542375888366379</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -605,31 +605,31 @@
         <v>2.875363192576003</v>
       </c>
       <c r="C7">
-        <v>1.013212142215764</v>
+        <v>1.013212142215252</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.06666041820207624</v>
+        <v>0.06666041820207269</v>
       </c>
       <c r="F7">
-        <v>1.840029660823987</v>
+        <v>1.840029660823973</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1.221923277007349</v>
+        <v>1.221923277007363</v>
       </c>
       <c r="I7">
-        <v>0.184446678413785</v>
+        <v>0.1844466784137815</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2677545929568694</v>
+        <v>0.2677545929568481</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,34 +640,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.531284708139594</v>
+        <v>3.531284708139879</v>
       </c>
       <c r="C8">
-        <v>1.24986959738834</v>
+        <v>1.249869597388624</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.08114286772531543</v>
+        <v>0.08114286772535095</v>
       </c>
       <c r="F8">
-        <v>2.236265567488005</v>
+        <v>2.236265567487962</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1.41671012258729</v>
+        <v>1.416710122587276</v>
       </c>
       <c r="I8">
-        <v>0.2061908470441125</v>
+        <v>0.2061908470441267</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3283365123237942</v>
+        <v>0.3283365123238013</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.877683352786505</v>
+        <v>4.877683352786846</v>
       </c>
       <c r="C9">
-        <v>1.740580032093021</v>
+        <v>1.740580032093249</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1101577540151375</v>
+        <v>0.1101577540151304</v>
       </c>
       <c r="F9">
         <v>3.063795186298734</v>
@@ -699,13 +699,13 @@
         <v>1.841461494707147</v>
       </c>
       <c r="I9">
-        <v>0.2563616288859265</v>
+        <v>0.2563616288859549</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.452006578700356</v>
+        <v>0.4520065787003702</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,34 +716,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.924694527499526</v>
+        <v>5.924694527499469</v>
       </c>
       <c r="C10">
-        <v>2.126720416573846</v>
+        <v>2.126720416573619</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1320851576931616</v>
+        <v>0.1320851576931688</v>
       </c>
       <c r="F10">
-        <v>3.717377344972931</v>
+        <v>3.717377344972959</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2.191298396395283</v>
+        <v>2.191298396395297</v>
       </c>
       <c r="I10">
-        <v>0.2999568622259758</v>
+        <v>0.2999568622259829</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.5475654327136326</v>
+        <v>0.5475654327136468</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -757,13 +757,13 @@
         <v>6.419440280271374</v>
       </c>
       <c r="C11">
-        <v>2.310571171508457</v>
+        <v>2.310571171508172</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.14225533461045</v>
+        <v>0.1422553346104642</v>
       </c>
       <c r="F11">
         <v>4.028646437340257</v>
@@ -772,16 +772,16 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2.361882064415866</v>
+        <v>2.361882064415823</v>
       </c>
       <c r="I11">
-        <v>0.3218595057396456</v>
+        <v>0.3218595057396527</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.5925327220168626</v>
+        <v>0.5925327220168768</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.610049317191113</v>
+        <v>6.610049317191056</v>
       </c>
       <c r="C12">
-        <v>2.381641774991181</v>
+        <v>2.381641774991124</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1461407257639102</v>
+        <v>0.1461407257639138</v>
       </c>
       <c r="F12">
         <v>4.148933138244331</v>
@@ -810,16 +810,16 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>2.428456383707513</v>
+        <v>2.428456383707527</v>
       </c>
       <c r="I12">
-        <v>0.3305153711952045</v>
+        <v>0.3305153711951831</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.6098244501199375</v>
+        <v>0.6098244501199019</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,34 +830,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.568842331958081</v>
+        <v>6.568842331958251</v>
       </c>
       <c r="C13">
-        <v>2.366266013101097</v>
+        <v>2.366266013100812</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.14530231059695</v>
+        <v>0.1453023105969216</v>
       </c>
       <c r="F13">
-        <v>4.122912454869493</v>
+        <v>4.122912454869521</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>2.414024436293118</v>
+        <v>2.41402443629309</v>
       </c>
       <c r="I13">
-        <v>0.328633916144085</v>
+        <v>0.3286339161440921</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.606087775974288</v>
+        <v>0.6060877759743093</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.435052574198721</v>
+        <v>6.435052574198778</v>
       </c>
       <c r="C14">
-        <v>2.316387369857068</v>
+        <v>2.316387369856784</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1425742651057007</v>
+        <v>0.1425742651057398</v>
       </c>
       <c r="F14">
         <v>4.038491461661778</v>
@@ -886,16 +886,16 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>2.367317392751119</v>
+        <v>2.367317392751147</v>
       </c>
       <c r="I14">
-        <v>0.3225639620989256</v>
+        <v>0.3225639620989114</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.5939497308725308</v>
+        <v>0.593949730872545</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,34 +906,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.353546992672364</v>
+        <v>6.353546992672534</v>
       </c>
       <c r="C15">
-        <v>2.286033148239767</v>
+        <v>2.286033148240051</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1409079045498736</v>
+        <v>0.1409079045498807</v>
       </c>
       <c r="F15">
-        <v>3.9871092255284</v>
+        <v>3.987109225528457</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>2.33897655359381</v>
+        <v>2.338976553593838</v>
       </c>
       <c r="I15">
-        <v>0.3188951904471011</v>
+        <v>0.3188951904471224</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.5865507433102479</v>
+        <v>0.5865507433102906</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,34 +944,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.892782243881925</v>
+        <v>5.892782243881868</v>
       </c>
       <c r="C16">
-        <v>2.114892262611136</v>
+        <v>2.114892262610965</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1314249415560624</v>
+        <v>0.1314249415560482</v>
       </c>
       <c r="F16">
-        <v>3.697349273850051</v>
+        <v>3.697349273850023</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>2.180407598709209</v>
+        <v>2.180407598709223</v>
       </c>
       <c r="I16">
-        <v>0.2985723185283433</v>
+        <v>0.2985723185283362</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.5446607705910509</v>
+        <v>0.5446607705910367</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,34 +982,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.61524035562195</v>
+        <v>5.615240355621836</v>
       </c>
       <c r="C17">
-        <v>2.012178752827822</v>
+        <v>2.012178752828277</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1256615143838502</v>
+        <v>0.1256615143838467</v>
       </c>
       <c r="F17">
-        <v>3.523433294220695</v>
+        <v>3.523433294220723</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>2.086278606335725</v>
+        <v>2.086278606335739</v>
       </c>
       <c r="I17">
-        <v>0.286676836955408</v>
+        <v>0.2866768369553512</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.5193777581717285</v>
+        <v>0.5193777581717143</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.457300329375641</v>
+        <v>5.457300329375357</v>
       </c>
       <c r="C18">
-        <v>1.953852793228691</v>
+        <v>1.953852793228862</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1223645110306109</v>
+        <v>0.122364511030657</v>
       </c>
       <c r="F18">
         <v>3.424686192438969</v>
@@ -1041,13 +1041,13 @@
         <v>2.03319177203096</v>
       </c>
       <c r="I18">
-        <v>0.2800252798684255</v>
+        <v>0.2800252798684042</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.5049731945967011</v>
+        <v>0.5049731945967224</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1061,16 +1061,16 @@
         <v>5.404099009692345</v>
       </c>
       <c r="C19">
-        <v>1.934226362874199</v>
+        <v>1.934226362874142</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1212511176790407</v>
+        <v>0.1212511176790798</v>
       </c>
       <c r="F19">
-        <v>3.391461463742331</v>
+        <v>3.39146146374236</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,13 +1079,13 @@
         <v>2.015389311225235</v>
       </c>
       <c r="I19">
-        <v>0.277804139108234</v>
+        <v>0.2778041391081842</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.5001183501099788</v>
+        <v>0.5001183501099931</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,34 +1096,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.644605745957222</v>
+        <v>5.644605745957278</v>
       </c>
       <c r="C20">
-        <v>2.023033136572906</v>
+        <v>2.023033136573247</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1262731403390198</v>
+        <v>0.1262731403390625</v>
       </c>
       <c r="F20">
-        <v>3.541811243152949</v>
+        <v>3.541811243152978</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>2.096187536091534</v>
+        <v>2.09618753609152</v>
       </c>
       <c r="I20">
-        <v>0.2879230028410191</v>
+        <v>0.2879230028410049</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.5220546193510813</v>
+        <v>0.5220546193511169</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1137,16 +1137,16 @@
         <v>6.47425597826998</v>
       </c>
       <c r="C21">
-        <v>2.330996130790425</v>
+        <v>2.330996130790311</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1433745777297091</v>
+        <v>0.1433745777296949</v>
       </c>
       <c r="F21">
-        <v>4.06321874526185</v>
+        <v>4.063218745261793</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,13 +1155,13 @@
         <v>2.380979724559737</v>
       </c>
       <c r="I21">
-        <v>0.324336456795983</v>
+        <v>0.3243364567959688</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.5975073847662884</v>
+        <v>0.5975073847663097</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,10 +1172,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.035853958682367</v>
+        <v>7.035853958682424</v>
       </c>
       <c r="C22">
-        <v>2.540890560244861</v>
+        <v>2.54089056024543</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>2.578842090573161</v>
+        <v>2.57884209057319</v>
       </c>
       <c r="I22">
-        <v>0.3502840472700299</v>
+        <v>0.3502840472700512</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.6483859925115851</v>
+        <v>0.648385992511578</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,34 +1210,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.734112631351479</v>
+        <v>6.734112631351309</v>
       </c>
       <c r="C23">
-        <v>2.427971817375123</v>
+        <v>2.427971817375465</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1486597959008655</v>
+        <v>0.1486597959008762</v>
       </c>
       <c r="F23">
-        <v>4.227327860596972</v>
+        <v>4.227327860597001</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>2.472037659566297</v>
+        <v>2.472037659566269</v>
       </c>
       <c r="I23">
-        <v>0.3362137359852184</v>
+        <v>0.3362137359852468</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.6210693864265338</v>
+        <v>0.6210693864265906</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,34 +1248,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.631324643384971</v>
+        <v>5.631324643384801</v>
       </c>
       <c r="C24">
-        <v>2.018123630008915</v>
+        <v>2.018123630008404</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1259965733987158</v>
+        <v>0.1259965733986981</v>
       </c>
       <c r="F24">
-        <v>3.53349874157044</v>
+        <v>3.533498741570412</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>2.091704527548643</v>
+        <v>2.091704527548657</v>
       </c>
       <c r="I24">
-        <v>0.287359032451505</v>
+        <v>0.2873590324514907</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.5208440059752135</v>
+        <v>0.5208440059752064</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.50502827601548</v>
+        <v>4.505028276015707</v>
       </c>
       <c r="C25">
         <v>1.604102693281163</v>
@@ -1295,25 +1295,25 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1022201825728963</v>
+        <v>0.1022201825728928</v>
       </c>
       <c r="F25">
-        <v>2.833121713105697</v>
+        <v>2.833121713105669</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>1.720877605778668</v>
+        <v>1.720877605778639</v>
       </c>
       <c r="I25">
-        <v>0.2417837239183882</v>
+        <v>0.2417837239184308</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.4178664490694715</v>
+        <v>0.4178664490694857</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_48/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_48/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.712403597546086</v>
+        <v>3.677977620515321</v>
       </c>
       <c r="C2">
-        <v>1.315496272810776</v>
+        <v>1.297002448759827</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.08510079169026952</v>
+        <v>0.08611327885492415</v>
       </c>
       <c r="F2">
-        <v>2.346567120924448</v>
+        <v>2.341550624283812</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007656299364192032</v>
       </c>
       <c r="H2">
-        <v>1.47200860018836</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2125246517351123</v>
+        <v>1.484698868693158</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2166009473906847</v>
       </c>
       <c r="K2">
-        <v>0.3450252138366423</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.3440408200864553</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.191161470689508</v>
+        <v>3.162039693655686</v>
       </c>
       <c r="C3">
-        <v>1.126954449736161</v>
+        <v>1.11113263079784</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.07366267107537183</v>
+        <v>0.07460561152183587</v>
       </c>
       <c r="F3">
-        <v>2.030133864899824</v>
+        <v>2.027255418810171</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0007764030059736708</v>
       </c>
       <c r="H3">
-        <v>1.314588187706335</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.1946743639046957</v>
+        <v>1.330039854293133</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.1994151583186543</v>
       </c>
       <c r="K3">
-        <v>0.2969509333840534</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.2961225182439478</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.877077212138317</v>
+        <v>2.851186597978653</v>
       </c>
       <c r="C4">
-        <v>1.013828488942693</v>
+        <v>0.9996337908064561</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.06669857509781707</v>
+        <v>0.06759626801022023</v>
       </c>
       <c r="F4">
-        <v>1.841057863696207</v>
+        <v>1.83946229021187</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0007831463492999384</v>
       </c>
       <c r="H4">
-        <v>1.22242029627337</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.1845009242640785</v>
+        <v>1.239543220816046</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.1896430198534986</v>
       </c>
       <c r="K4">
-        <v>0.2679132069706398</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.2671759202346351</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.750337530693628</v>
+        <v>2.725761179054871</v>
       </c>
       <c r="C5">
-        <v>0.968283489026561</v>
+        <v>0.9547505138347105</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.06387259751986818</v>
+        <v>0.06475121166524289</v>
       </c>
       <c r="F5">
-        <v>1.765141469741707</v>
+        <v>1.764063304278338</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0007859298970336924</v>
       </c>
       <c r="H5">
-        <v>1.185851235267592</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.1805283982521146</v>
+        <v>1.203651511893796</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.1858329389925757</v>
       </c>
       <c r="K5">
-        <v>0.2561803289170541</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.2554792131669785</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.729361435425687</v>
+        <v>2.705003272830709</v>
       </c>
       <c r="C6">
-        <v>0.9607513245873065</v>
+        <v>0.9473282013883306</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.06340398881268783</v>
+        <v>0.06427939625803347</v>
       </c>
       <c r="F6">
-        <v>1.752599214039122</v>
+        <v>1.751606696160707</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0007863943401814486</v>
       </c>
       <c r="H6">
-        <v>1.17983498858969</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.1798785606691986</v>
+        <v>1.197747579426562</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.18521002544081</v>
       </c>
       <c r="K6">
-        <v>0.2542375888366379</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.2535424263156685</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.875363192576003</v>
+        <v>2.849490308149484</v>
       </c>
       <c r="C7">
-        <v>1.013212142215252</v>
+        <v>0.9990263712412855</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.06666041820207269</v>
+        <v>0.0675578564041821</v>
       </c>
       <c r="F7">
-        <v>1.840029660823973</v>
+        <v>1.838441084429803</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0007831837410952977</v>
       </c>
       <c r="H7">
-        <v>1.221923277007363</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.1844466784137815</v>
+        <v>1.239055348607351</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.1895909684740147</v>
       </c>
       <c r="K7">
-        <v>0.2677545929568481</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.2670177976962833</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.531284708139879</v>
+        <v>3.498695535445165</v>
       </c>
       <c r="C8">
-        <v>1.249869597388624</v>
+        <v>1.232301218324494</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.08114286772535095</v>
+        <v>0.08213190411379401</v>
       </c>
       <c r="F8">
-        <v>2.236265567487962</v>
+        <v>2.231993871980592</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0007693198508727525</v>
       </c>
       <c r="H8">
-        <v>1.416710122587276</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.2061908470441267</v>
+        <v>1.430359111655022</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.210498041355546</v>
       </c>
       <c r="K8">
-        <v>0.3283365123238013</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.3274069968059834</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.877683352786846</v>
+        <v>4.83150166213926</v>
       </c>
       <c r="C9">
-        <v>1.740580032093249</v>
+        <v>1.716159030848644</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1101577540151304</v>
+        <v>0.1113061000869102</v>
       </c>
       <c r="F9">
-        <v>3.063795186298734</v>
+        <v>3.053907377497382</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0007429864444892734</v>
       </c>
       <c r="H9">
-        <v>1.841461494707147</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.2563616288859549</v>
+        <v>1.847957369169364</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.2589415386239722</v>
       </c>
       <c r="K9">
-        <v>0.4520065787003702</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.4506509748352556</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.924694527499469</v>
+        <v>5.867884620892198</v>
       </c>
       <c r="C10">
-        <v>2.126720416573619</v>
+        <v>2.096934174485739</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1320851576931688</v>
+        <v>0.1333377627833983</v>
       </c>
       <c r="F10">
-        <v>3.717377344972959</v>
+        <v>3.702941338662157</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.000723886901380969</v>
       </c>
       <c r="H10">
-        <v>2.191298396395297</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.2999568622259829</v>
+        <v>2.192114721301508</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.3011585224692368</v>
       </c>
       <c r="K10">
-        <v>0.5475654327136468</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.5458471155992228</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.419440280271374</v>
+        <v>6.357538465275525</v>
       </c>
       <c r="C11">
-        <v>2.310571171508172</v>
+        <v>2.278212395159642</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1422553346104642</v>
+        <v>0.1435524056453836</v>
       </c>
       <c r="F11">
-        <v>4.028646437340257</v>
+        <v>4.011986943496424</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0007151766151597418</v>
       </c>
       <c r="H11">
-        <v>2.361882064415823</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.3218595057396527</v>
+        <v>2.359953767222578</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.3223931679832504</v>
       </c>
       <c r="K11">
-        <v>0.5925327220168768</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.5906322768057635</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.610049317191056</v>
+        <v>6.546169135288721</v>
       </c>
       <c r="C12">
-        <v>2.381641774991124</v>
+        <v>2.348283151692272</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1461407257639138</v>
+        <v>0.1474541828913232</v>
       </c>
       <c r="F12">
-        <v>4.148933138244331</v>
+        <v>4.131402398774071</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0007118673962225395</v>
       </c>
       <c r="H12">
-        <v>2.428456383707527</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.3305153711951831</v>
+        <v>2.425457941611697</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.3307882438956753</v>
       </c>
       <c r="K12">
-        <v>0.6098244501199019</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.6078518504431401</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.568842331958251</v>
+        <v>6.50539070793792</v>
       </c>
       <c r="C13">
-        <v>2.366266013100812</v>
+        <v>2.333123994078846</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1453023105969216</v>
+        <v>0.1466122593327128</v>
       </c>
       <c r="F13">
-        <v>4.122912454869521</v>
+        <v>4.105570788151937</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0007125807156929616</v>
       </c>
       <c r="H13">
-        <v>2.41402443629309</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.3286339161440921</v>
+        <v>2.411257984134181</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.3289633394202909</v>
       </c>
       <c r="K13">
-        <v>0.6060877759743093</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.6041308715554692</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.435052574198778</v>
+        <v>6.372989091915144</v>
       </c>
       <c r="C14">
-        <v>2.316387369856784</v>
+        <v>2.283946895329507</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1425742651057398</v>
+        <v>0.1438726934858749</v>
       </c>
       <c r="F14">
-        <v>4.038491461661778</v>
+        <v>4.021760923551767</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0007149046300744169</v>
       </c>
       <c r="H14">
-        <v>2.367317392751147</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.3225639620989114</v>
+        <v>2.365301722995952</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.323076338972605</v>
       </c>
       <c r="K14">
-        <v>0.593949730872545</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.5920434182204488</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.353546992672534</v>
+        <v>6.292326800122225</v>
       </c>
       <c r="C15">
-        <v>2.286033148240051</v>
+        <v>2.254018814539904</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1409079045498807</v>
+        <v>0.1421992165294164</v>
       </c>
       <c r="F15">
-        <v>3.987109225528457</v>
+        <v>3.970748969302662</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0007163264318148784</v>
       </c>
       <c r="H15">
-        <v>2.338976553593838</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.3188951904471224</v>
+        <v>2.337416484104381</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.3195185453031826</v>
       </c>
       <c r="K15">
-        <v>0.5865507433102906</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.5846749796113428</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.892782243881868</v>
+        <v>5.836298882102824</v>
       </c>
       <c r="C16">
-        <v>2.114892262610965</v>
+        <v>2.085270953339659</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1314249415560482</v>
+        <v>0.132674579075541</v>
       </c>
       <c r="F16">
-        <v>3.697349273850023</v>
+        <v>3.683054908436219</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0007244550759660784</v>
       </c>
       <c r="H16">
-        <v>2.180407598709223</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.2985723185283362</v>
+        <v>2.181399440996955</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.2998166544999847</v>
       </c>
       <c r="K16">
-        <v>0.5446607705910367</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.5429539539518515</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.615240355621836</v>
+        <v>5.561588696067531</v>
       </c>
       <c r="C17">
-        <v>2.012178752828277</v>
+        <v>1.983987461535889</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1256615143838467</v>
+        <v>0.126884811739302</v>
       </c>
       <c r="F17">
-        <v>3.523433294220723</v>
+        <v>3.510362262034164</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.000729431122082902</v>
       </c>
       <c r="H17">
-        <v>2.086278606335739</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.2866768369553512</v>
+        <v>2.08878987518942</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.288290392746525</v>
       </c>
       <c r="K17">
-        <v>0.5193777581717143</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.5177697433185529</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.457300329375357</v>
+        <v>5.40525415705622</v>
       </c>
       <c r="C18">
-        <v>1.953852793228862</v>
+        <v>1.926472089802246</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.122364511030657</v>
+        <v>0.1235723815074294</v>
       </c>
       <c r="F18">
-        <v>3.424686192438969</v>
+        <v>3.412304761929761</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0007322916954674315</v>
       </c>
       <c r="H18">
-        <v>2.03319177203096</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.2800252798684042</v>
+        <v>2.036562382049325</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.2818474805649132</v>
       </c>
       <c r="K18">
-        <v>0.5049731945967224</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.5034204489835687</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.404099009692345</v>
+        <v>5.3525927850892</v>
       </c>
       <c r="C19">
-        <v>1.934226362874142</v>
+        <v>1.907118240353043</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1212511176790798</v>
+        <v>0.1224537179928085</v>
       </c>
       <c r="F19">
-        <v>3.39146146374236</v>
+        <v>3.379311296926971</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0007332601871640225</v>
       </c>
       <c r="H19">
-        <v>2.015389311225235</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.2778041391081842</v>
+        <v>2.01904857569231</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.2796963953933727</v>
       </c>
       <c r="K19">
-        <v>0.5001183501099931</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.498584068883261</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.644605745957278</v>
+        <v>5.590655136054352</v>
       </c>
       <c r="C20">
-        <v>2.023033136573247</v>
+        <v>1.994690894309542</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1262731403390625</v>
+        <v>0.1274992704464495</v>
       </c>
       <c r="F20">
-        <v>3.541811243152978</v>
+        <v>3.52861148201967</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0007289016215519251</v>
       </c>
       <c r="H20">
-        <v>2.09618753609152</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.2879230028410049</v>
+        <v>2.098538619013951</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.2894976520383494</v>
       </c>
       <c r="K20">
-        <v>0.5220546193511169</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.5204362528360349</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.47425597826998</v>
+        <v>6.411786250115142</v>
       </c>
       <c r="C21">
-        <v>2.330996130790311</v>
+        <v>2.298350355446871</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1433745777296949</v>
+        <v>0.1446764024529195</v>
       </c>
       <c r="F21">
-        <v>4.063218745261793</v>
+        <v>4.046309563698173</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0007142224026260412</v>
       </c>
       <c r="H21">
-        <v>2.380979724559737</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.3243364567959688</v>
+        <v>2.378744439556669</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.3247953263831249</v>
       </c>
       <c r="K21">
-        <v>0.5975073847663097</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.5955863053700838</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.035853958682424</v>
+        <v>6.967515045172036</v>
       </c>
       <c r="C22">
-        <v>2.54089056024543</v>
+        <v>2.505277893157825</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1547540476507514</v>
+        <v>0.156102686723127</v>
       </c>
       <c r="F22">
-        <v>4.418318851297613</v>
+        <v>4.398810007961742</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0007045608726251065</v>
       </c>
       <c r="H22">
-        <v>2.57884209057319</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.3502840472700512</v>
+        <v>2.573424537055473</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.3499667191318068</v>
       </c>
       <c r="K22">
-        <v>0.648385992511578</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.6462479984622007</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.734112631351309</v>
+        <v>6.668939173062427</v>
       </c>
       <c r="C23">
-        <v>2.427971817375465</v>
+        <v>2.393959488044686</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1486597959008762</v>
+        <v>0.1499837040193555</v>
       </c>
       <c r="F23">
-        <v>4.227327860597001</v>
+        <v>4.209225414790552</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0007097265695920759</v>
       </c>
       <c r="H23">
-        <v>2.472037659566269</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.3362137359852468</v>
+        <v>2.468338562350397</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.3363157625242081</v>
       </c>
       <c r="K23">
-        <v>0.6210693864265906</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.6190492062943349</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.631324643384801</v>
+        <v>5.577509258059024</v>
       </c>
       <c r="C24">
-        <v>2.018123630008404</v>
+        <v>1.989849668168802</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1259965733986981</v>
+        <v>0.1272214237003801</v>
       </c>
       <c r="F24">
-        <v>3.533498741570412</v>
+        <v>3.520357220989411</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0007291410087716314</v>
       </c>
       <c r="H24">
-        <v>2.091704527548657</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.2873590324514907</v>
+        <v>2.094128074202175</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.2889512824706415</v>
       </c>
       <c r="K24">
-        <v>0.5208440059752064</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.5192303241704579</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.505028276015707</v>
+        <v>4.462603527271824</v>
       </c>
       <c r="C25">
-        <v>1.604102693281163</v>
+        <v>1.581576752273349</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1022201825728928</v>
+        <v>0.1033276327931922</v>
       </c>
       <c r="F25">
-        <v>2.833121713105669</v>
+        <v>2.824809732784445</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007500445850801836</v>
       </c>
       <c r="H25">
-        <v>1.720877605778639</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.2417837239184308</v>
+        <v>1.729363721148516</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.2448452336670286</v>
       </c>
       <c r="K25">
-        <v>0.4178664490694857</v>
+        <v>0</v>
       </c>
       <c r="L25">
+        <v>0.4166330802581868</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_48/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_48/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.677977620515321</v>
+        <v>4.203826949700215</v>
       </c>
       <c r="C2">
-        <v>1.297002448759827</v>
+        <v>0.5438540552692928</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.08611327885492415</v>
+        <v>0.01662750530222912</v>
       </c>
       <c r="F2">
-        <v>2.341550624283812</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.0007656299364192032</v>
+        <v>0.0008170284176904755</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.484698868693158</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2166009473906847</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.004402107459711</v>
       </c>
       <c r="L2">
-        <v>0.3440408200864553</v>
+        <v>0.3456780192660744</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>1.968875342393957</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.162039693655686</v>
+        <v>3.67394410058381</v>
       </c>
       <c r="C3">
-        <v>1.11113263079784</v>
+        <v>0.4660728695048704</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.07460561152183587</v>
+        <v>0.0161283481477188</v>
       </c>
       <c r="F3">
-        <v>2.027255418810171</v>
+        <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.0007764030059736708</v>
+        <v>0.0008278172579484671</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.330039854293133</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1994151583186543</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.8724571325336967</v>
       </c>
       <c r="L3">
-        <v>0.2961225182439478</v>
+        <v>0.3039403877615143</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>1.955342164654766</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.851186597978653</v>
+        <v>3.357249467650206</v>
       </c>
       <c r="C4">
-        <v>0.9996337908064561</v>
+        <v>0.4194121981418277</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.06759626801022023</v>
+        <v>0.01584279876035843</v>
       </c>
       <c r="F4">
-        <v>1.83946229021187</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.0007831463492999384</v>
+        <v>0.0008345845505512647</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.239543220816046</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1896430198534986</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.7935248697178992</v>
       </c>
       <c r="L4">
-        <v>0.2671759202346351</v>
+        <v>0.2790200110954117</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>1.949783316165849</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.725761179054871</v>
+        <v>3.230090835517331</v>
       </c>
       <c r="C5">
-        <v>0.9547505138347105</v>
+        <v>0.4006304680723645</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.06475121166524289</v>
+        <v>0.01573137799625091</v>
       </c>
       <c r="F5">
-        <v>1.764063304278338</v>
+        <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.0007859298970336924</v>
+        <v>0.0008373811218538754</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.203651511893796</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1858329389925757</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.7618127959063088</v>
       </c>
       <c r="L5">
-        <v>0.2554792131669785</v>
+        <v>0.2690206298179589</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>1.948152199043278</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.705003272830709</v>
+        <v>3.209083177931575</v>
       </c>
       <c r="C6">
-        <v>0.9473282013883306</v>
+        <v>0.3975246672974038</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.06427939625803347</v>
+        <v>0.01571316642320753</v>
       </c>
       <c r="F6">
-        <v>1.751606696160707</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.0007863943401814486</v>
+        <v>0.0008378479163407303</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.197747579426562</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.18521002544081</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.7565725011078968</v>
       </c>
       <c r="L6">
-        <v>0.2535424263156685</v>
+        <v>0.267369057520682</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>1.947918083781275</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.849490308149484</v>
+        <v>3.355527229848462</v>
       </c>
       <c r="C7">
-        <v>0.9990263712412855</v>
+        <v>0.4191580119016862</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.0675578564041821</v>
+        <v>0.01584127648822964</v>
       </c>
       <c r="F7">
-        <v>1.838441084429803</v>
+        <v>1.139311062524627</v>
       </c>
       <c r="G7">
-        <v>0.0007831837410952977</v>
+        <v>0.00083462210510561</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.239055348607351</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1895909684740147</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.793095441119462</v>
       </c>
       <c r="L7">
-        <v>0.2670177976962833</v>
+        <v>0.2788845520813368</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>1.949758822414239</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.498695535445165</v>
+        <v>4.01914923899443</v>
       </c>
       <c r="C8">
-        <v>1.232301218324494</v>
+        <v>0.5167799524257077</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.08213190411379401</v>
+        <v>0.01645084657222817</v>
       </c>
       <c r="F8">
-        <v>2.231993871980592</v>
+        <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.0007693198508727525</v>
+        <v>0.0008207205961626057</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.430359111655022</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.210498041355546</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.9584306348126717</v>
       </c>
       <c r="L8">
-        <v>0.3274069968059834</v>
+        <v>0.3311263452404489</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>1.963601699676303</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.83150166213926</v>
+        <v>5.403560456697392</v>
       </c>
       <c r="C9">
-        <v>1.716159030848644</v>
+        <v>0.7191459519903844</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1113061000869102</v>
+        <v>0.01782885293853553</v>
       </c>
       <c r="F9">
-        <v>3.053907377497382</v>
+        <v>1.895061171845313</v>
       </c>
       <c r="G9">
-        <v>0.0007429864444892734</v>
+        <v>0.0007944448113945005</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.847957369169364</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2589415386239722</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.302788417571705</v>
       </c>
       <c r="L9">
-        <v>0.4506509748352556</v>
+        <v>0.4403000593616326</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>2.015520424232463</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.867884620892198</v>
+        <v>6.494609971043985</v>
       </c>
       <c r="C10">
-        <v>2.096934174485739</v>
+        <v>0.8781104768355874</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1333377627833983</v>
+        <v>0.01897938779101338</v>
       </c>
       <c r="F10">
-        <v>3.702941338662157</v>
+        <v>2.275587181990801</v>
       </c>
       <c r="G10">
-        <v>0.000723886901380969</v>
+        <v>0.0007755006607643722</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.192114721301508</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3011585224692368</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.573924572196674</v>
       </c>
       <c r="L10">
-        <v>0.5458471155992228</v>
+        <v>0.5264228228073051</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>2.073539015150487</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.357538465275525</v>
+        <v>7.013341768666578</v>
       </c>
       <c r="C11">
-        <v>2.278212395159642</v>
+        <v>0.9536544720636755</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1435524056453836</v>
+        <v>0.01954004642131757</v>
       </c>
       <c r="F11">
-        <v>4.011986943496424</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.0007151766151597418</v>
+        <v>0.0007668960144628922</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.359953767222578</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.3223931679832504</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.702805960288885</v>
       </c>
       <c r="L11">
-        <v>0.5906322768057635</v>
+        <v>0.5673770678130126</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>2.105549192246173</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.546169135288721</v>
+        <v>7.213635805781735</v>
       </c>
       <c r="C12">
-        <v>2.348283151692272</v>
+        <v>0.9828269214430634</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1474541828913232</v>
+        <v>0.01975844643374103</v>
       </c>
       <c r="F12">
-        <v>4.131402398774071</v>
+        <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.0007118673962225395</v>
+        <v>0.0007636330218145751</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.425457941611697</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.3307882438956753</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.752568625040084</v>
       </c>
       <c r="L12">
-        <v>0.6078518504431401</v>
+        <v>0.5831904085295037</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>2.11861082000803</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.50539070793792</v>
+        <v>7.170315735937265</v>
       </c>
       <c r="C13">
-        <v>2.333123994078846</v>
+        <v>0.976517145649126</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1466122593327128</v>
+        <v>0.0197111261616687</v>
       </c>
       <c r="F13">
-        <v>4.105570788151937</v>
+        <v>2.504295469236098</v>
       </c>
       <c r="G13">
-        <v>0.0007125807156929616</v>
+        <v>0.000764336085992585</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.411257984134181</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3289633394202909</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.741805848221475</v>
       </c>
       <c r="L13">
-        <v>0.6041308715554692</v>
+        <v>0.5797702832545468</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>2.115753589069612</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.372989091915144</v>
+        <v>7.029738616154532</v>
       </c>
       <c r="C14">
-        <v>2.283946895329507</v>
+        <v>0.9560425259495844</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1438726934858749</v>
+        <v>0.01955788760639265</v>
       </c>
       <c r="F14">
-        <v>4.021760923551767</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.0007149046300744169</v>
+        <v>0.0007666276995991837</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.365301722995952</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.323076338972605</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.706879734527831</v>
       </c>
       <c r="L14">
-        <v>0.5920434182204488</v>
+        <v>0.5686716170022237</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>2.106604096383506</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.292326800122225</v>
+        <v>6.944154881260999</v>
       </c>
       <c r="C15">
-        <v>2.254018814539904</v>
+        <v>0.9435782033576174</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1421992165294164</v>
+        <v>0.0194648416426304</v>
       </c>
       <c r="F15">
-        <v>3.970748969302662</v>
+        <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.0007163264318148784</v>
+        <v>0.0007680305679418353</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.337416484104381</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.3195185453031826</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.685616536945375</v>
       </c>
       <c r="L15">
-        <v>0.5846749796113428</v>
+        <v>0.5619146786699218</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>2.10112652572414</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.836298882102824</v>
+        <v>6.461212669182487</v>
       </c>
       <c r="C16">
-        <v>2.085270953339659</v>
+        <v>0.873246728394804</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.132674579075541</v>
+        <v>0.01894355711951512</v>
       </c>
       <c r="F16">
-        <v>3.683054908436219</v>
+        <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>0.0007244550759660784</v>
+        <v>0.0007760627295968583</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.181399440996955</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2998166544999847</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.565626511215982</v>
       </c>
       <c r="L16">
-        <v>0.5429539539518515</v>
+        <v>0.5237861461163504</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>2.071570893849355</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.561588696067531</v>
+        <v>6.171103385978199</v>
       </c>
       <c r="C17">
-        <v>1.983987461535889</v>
+        <v>0.8309943496277015</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.126884811739302</v>
+        <v>0.01863379446935731</v>
       </c>
       <c r="F17">
-        <v>3.510362262034164</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.000729431122082902</v>
+        <v>0.0007809892895877058</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.08878987518942</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.288290392746525</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.493541699056621</v>
       </c>
       <c r="L17">
-        <v>0.5177697433185529</v>
+        <v>0.500883102220115</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>2.05496523647426</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.40525415705622</v>
+        <v>6.006305154284235</v>
       </c>
       <c r="C18">
-        <v>1.926472089802246</v>
+        <v>0.8069889298953967</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1235723815074294</v>
+        <v>0.0184590852290194</v>
       </c>
       <c r="F18">
-        <v>3.412304761929761</v>
+        <v>2.107028586650742</v>
       </c>
       <c r="G18">
-        <v>0.0007322916954674315</v>
+        <v>0.0007838246012635706</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.036562382049325</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2818474805649132</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.452590726665235</v>
       </c>
       <c r="L18">
-        <v>0.5034204489835687</v>
+        <v>0.4878736890438518</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>2.045933668989079</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.3525927850892</v>
+        <v>5.950844250886007</v>
       </c>
       <c r="C19">
-        <v>1.907118240353043</v>
+        <v>0.7989093320273355</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1224537179928085</v>
+        <v>0.01840050533327364</v>
       </c>
       <c r="F19">
-        <v>3.379311296926971</v>
+        <v>2.087706772602971</v>
       </c>
       <c r="G19">
-        <v>0.0007332601871640225</v>
+        <v>0.0007847850584093536</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.01904857569231</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2796963953933727</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.4388086080195</v>
       </c>
       <c r="L19">
-        <v>0.498584068883261</v>
+        <v>0.4834956899038474</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>2.042961308900914</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.590655136054352</v>
+        <v>6.201768020461088</v>
       </c>
       <c r="C20">
-        <v>1.994690894309542</v>
+        <v>0.8354607713473854</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1274992704464495</v>
+        <v>0.01866640644174389</v>
       </c>
       <c r="F20">
-        <v>3.52861148201967</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.0007289016215519251</v>
+        <v>0.0007804647180234231</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.098538619013951</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2894976520383494</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.501161356097086</v>
       </c>
       <c r="L20">
-        <v>0.5204362528360349</v>
+        <v>0.5033038854772087</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>2.056678278809329</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.411786250115142</v>
+        <v>7.070919055267098</v>
       </c>
       <c r="C21">
-        <v>2.298350355446871</v>
+        <v>0.9620401693417477</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1446764024529195</v>
+        <v>0.01960272571562349</v>
       </c>
       <c r="F21">
-        <v>4.046309563698173</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.0007142224026260412</v>
+        <v>0.0007659547794207097</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.378744439556669</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.3247953263831249</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.717110946990047</v>
       </c>
       <c r="L21">
-        <v>0.5955863053700838</v>
+        <v>0.5719228534907614</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>2.10926483715258</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.967515045172036</v>
+        <v>7.661852579124968</v>
       </c>
       <c r="C22">
-        <v>2.505277893157825</v>
+        <v>1.048125119802762</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.156102686723127</v>
+        <v>0.02025060454679206</v>
       </c>
       <c r="F22">
-        <v>4.398810007961742</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.0007045608726251065</v>
+        <v>0.0007564409869842982</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.573424537055473</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3499667191318068</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.863928265100697</v>
       </c>
       <c r="L22">
-        <v>0.6462479984622007</v>
+        <v>0.6185758823337437</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>2.149192461326464</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.668939173062427</v>
+        <v>7.344122904537642</v>
       </c>
       <c r="C23">
-        <v>2.393959488044686</v>
+        <v>1.001834167187383</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1499837040193555</v>
+        <v>0.01990125413275301</v>
       </c>
       <c r="F23">
-        <v>4.209225414790552</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.0007097265695920759</v>
+        <v>0.000761523945940102</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.468338562350397</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.3363157625242081</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.784987905752558</v>
       </c>
       <c r="L23">
-        <v>0.6190492062943349</v>
+        <v>0.5934922781552814</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>2.127323394606947</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.577509258059024</v>
+        <v>6.187898389199802</v>
       </c>
       <c r="C24">
-        <v>1.989849668168802</v>
+        <v>0.8334406185143166</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1272214237003801</v>
+        <v>0.0186516521020863</v>
       </c>
       <c r="F24">
-        <v>3.520357220989411</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.0007291410087716314</v>
+        <v>0.0007807018670281403</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.094128074202175</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2889512824706415</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.497714989877565</v>
       </c>
       <c r="L24">
-        <v>0.5192303241704579</v>
+        <v>0.5022089612991181</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>2.055902217197399</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.462603527271824</v>
+        <v>5.017949456416943</v>
       </c>
       <c r="C25">
-        <v>1.581576752273349</v>
+        <v>0.6628894294409235</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1033276327931922</v>
+        <v>0.01743398174916155</v>
       </c>
       <c r="F25">
-        <v>2.824809732784445</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.0007500445850801836</v>
+        <v>0.0008014703749599047</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.729363721148516</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2448452336670286</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.206921627921119</v>
       </c>
       <c r="L25">
-        <v>0.4166330802581868</v>
+        <v>0.4098741063508129</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>1.998372782122033</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_48/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_48/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.203826949700215</v>
+        <v>3.442332681588141</v>
       </c>
       <c r="C2">
-        <v>0.5438540552692928</v>
+        <v>0.4809344573704095</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.01662750530222912</v>
+        <v>0.03537943717473624</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.0008170284176904755</v>
+        <v>0.8891437067569115</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.5664105030550246</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.004402107459711</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3456780192660744</v>
+        <v>0.3252402241880503</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.968875342393957</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.67394410058381</v>
+        <v>2.982972383210722</v>
       </c>
       <c r="C3">
-        <v>0.4660728695048704</v>
+        <v>0.4282301376688338</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0161283481477188</v>
+        <v>0.03529314376018888</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.0008278172579484671</v>
+        <v>0.8237199633589682</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.5477175447852716</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.8724571325336967</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3039403877615143</v>
+        <v>0.2848562326348514</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.955342164654766</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.357249467650206</v>
+        <v>2.703739884082893</v>
       </c>
       <c r="C4">
-        <v>0.4194121981418277</v>
+        <v>0.3959824473155606</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.01584279876035843</v>
+        <v>0.03531136323982587</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.0008345845505512647</v>
+        <v>0.7872917417366381</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.5382725825564449</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.7935248697178992</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2790200110954117</v>
+        <v>0.2604941771663789</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.949783316165849</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.230090835517331</v>
+        <v>2.590548207256631</v>
       </c>
       <c r="C5">
-        <v>0.4006304680723645</v>
+        <v>0.3828594479788876</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.01573137799625091</v>
+        <v>0.03533588150324185</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.0008373811218538754</v>
+        <v>0.7733079200996542</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.5348978183489379</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.7618127959063088</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2690206298179589</v>
+        <v>0.2506627982701275</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.948152199043278</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.209083177931575</v>
+        <v>2.57178586597945</v>
       </c>
       <c r="C6">
-        <v>0.3975246672974038</v>
+        <v>0.3806812016285619</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.01571316642320753</v>
+        <v>0.03534096250001895</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.0008378479163407303</v>
+        <v>0.7710356930338236</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.5343650501336299</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.7565725011078968</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.267369057520682</v>
+        <v>0.2490357712152047</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.947918083781275</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.355527229848462</v>
+        <v>2.702211060336822</v>
       </c>
       <c r="C7">
-        <v>0.4191580119016862</v>
+        <v>0.3958054051204272</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.01584127648822964</v>
+        <v>0.0353116257210857</v>
       </c>
       <c r="F7">
-        <v>1.139311062524627</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.00083462210510561</v>
+        <v>0.7870997663194856</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.5382251963657865</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.793095441119462</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2788845520813368</v>
+        <v>0.2603612137309312</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.949758822414239</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.01914923899443</v>
+        <v>3.283291190726629</v>
       </c>
       <c r="C8">
-        <v>0.5167799524257077</v>
+        <v>0.4627321073064081</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.01645084657222817</v>
+        <v>0.03533439848078146</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.0008207205961626057</v>
+        <v>0.8657587452447757</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.5595201346313274</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.9584306348126717</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3311263452404489</v>
+        <v>0.3112177698952081</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.963601699676303</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.403560456697392</v>
+        <v>4.450675772641148</v>
       </c>
       <c r="C9">
-        <v>0.7191459519903844</v>
+        <v>0.5953895135296534</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.01782885293853553</v>
+        <v>0.03598382046276249</v>
       </c>
       <c r="F9">
-        <v>1.895061171845313</v>
+        <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>0.0007944448113945005</v>
+        <v>1.053666017954583</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.6192384563946973</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.302788417571705</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4403000593616326</v>
+        <v>0.4150255340473876</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2.015520424232463</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.494609971043985</v>
+        <v>5.334014454559849</v>
       </c>
       <c r="C10">
-        <v>0.8781104768355874</v>
+        <v>0.6945334237620102</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.01897938779101338</v>
+        <v>0.03689053865373459</v>
       </c>
       <c r="F10">
-        <v>2.275587181990801</v>
+        <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>0.0007755006607643722</v>
+        <v>1.218377840696235</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.6768973031603309</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.573924572196674</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.5264228228073051</v>
+        <v>0.4947674682515242</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2.073539015150487</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.013341768666578</v>
+        <v>5.743655047492496</v>
       </c>
       <c r="C11">
-        <v>0.9536544720636755</v>
+        <v>0.740213083768964</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.01954004642131757</v>
+        <v>0.03741161996497233</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.0007668960144628922</v>
+        <v>1.300665419639927</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.7068454420213186</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.702805960288885</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.5673770678130126</v>
+        <v>0.5320503295217804</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2.105549192246173</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.213635805781735</v>
+        <v>5.900107978896415</v>
       </c>
       <c r="C12">
-        <v>0.9828269214430634</v>
+        <v>0.7576142155615742</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.01975844643374103</v>
+        <v>0.03762600502662394</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.0007636330218145751</v>
+        <v>1.33303407091887</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.7187902857845074</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.752568625040084</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5831904085295037</v>
+        <v>0.5463372030314986</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2.11861082000803</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.170315735937265</v>
+        <v>5.866350245084675</v>
       </c>
       <c r="C13">
-        <v>0.976517145649126</v>
+        <v>0.7538616314278386</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.0197111261616687</v>
+        <v>0.03757904969296355</v>
       </c>
       <c r="F13">
-        <v>2.504295469236098</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.000764336085992585</v>
+        <v>1.326006579192381</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.7161896811663837</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.741805848221475</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5797702832545468</v>
+        <v>0.5432523583231728</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2.115753589069612</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.029738616154532</v>
+        <v>5.756498562673244</v>
       </c>
       <c r="C14">
-        <v>0.9560425259495844</v>
+        <v>0.7416424921216844</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.01955788760639265</v>
+        <v>0.03742890671751375</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.0007666276995991837</v>
+        <v>1.303303268900834</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.7078156148832306</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.706879734527831</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5686716170022237</v>
+        <v>0.5332221925202134</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2.106604096383506</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.944154881260999</v>
+        <v>5.689391195253108</v>
       </c>
       <c r="C15">
-        <v>0.9435782033576174</v>
+        <v>0.7341720005563559</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.0194648416426304</v>
+        <v>0.0373392076104615</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.0007680305679418353</v>
+        <v>1.289558941641559</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.7027671424701225</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.685616536945375</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5619146786699218</v>
+        <v>0.5271011455565713</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2.10112652572414</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.461212669182487</v>
+        <v>5.307417787250017</v>
       </c>
       <c r="C16">
-        <v>0.873246728394804</v>
+        <v>0.6915614471336937</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.01894355711951512</v>
+        <v>0.03685879009923099</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>0.0007760627295968583</v>
+        <v>1.213160631769881</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.6750206885080559</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.565626511215982</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.5237861461163504</v>
+        <v>0.49235319003283</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2.071570893849355</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.171103385978199</v>
+        <v>5.075229081382361</v>
       </c>
       <c r="C17">
-        <v>0.8309943496277015</v>
+        <v>0.6655828989228496</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.01863379446935731</v>
+        <v>0.03659286499099679</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.0007809892895877058</v>
+        <v>1.168278540947881</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.6589983162470787</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.493541699056621</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.500883102220115</v>
+        <v>0.4713105821682149</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2.05496523647426</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6.006305154284235</v>
+        <v>4.94240105233979</v>
       </c>
       <c r="C18">
-        <v>0.8069889298953967</v>
+        <v>0.6506938419693427</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.0184590852290194</v>
+        <v>0.03645003930490098</v>
       </c>
       <c r="F18">
-        <v>2.107028586650742</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.0007838246012635706</v>
+        <v>1.143146245773352</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.6501280765911304</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.452590726665235</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4878736890438518</v>
+        <v>0.4593007144647459</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2.045933668989079</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.950844250886007</v>
+        <v>4.897545614749617</v>
       </c>
       <c r="C19">
-        <v>0.7989093320273355</v>
+        <v>0.6456612171794234</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.01840050533327364</v>
+        <v>0.03640337896394996</v>
       </c>
       <c r="F19">
-        <v>2.087706772602971</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.0007847850584093536</v>
+        <v>1.134749868094872</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.6471821142480394</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.4388086080195</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4834956899038474</v>
+        <v>0.4552497240454159</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>2.042961308900914</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.201768020461088</v>
+        <v>5.099869938978316</v>
       </c>
       <c r="C20">
-        <v>0.8354607713473854</v>
+        <v>0.6683427254493495</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.01866640644174389</v>
+        <v>0.03662011507652529</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.0007804647180234231</v>
+        <v>1.172984633124088</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.6606677019255756</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.501161356097086</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5033038854772087</v>
+        <v>0.4735407863617525</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2.056678278809329</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.070919055267098</v>
+        <v>5.788726751465504</v>
       </c>
       <c r="C21">
-        <v>0.9620401693417477</v>
+        <v>0.7452285748595671</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.01960272571562349</v>
+        <v>0.03747253192419286</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.0007659547794207097</v>
+        <v>1.309937703956223</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.7102582882970125</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.717110946990047</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5719228534907614</v>
+        <v>0.5361635141229613</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2.10926483715258</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.661852579124968</v>
+        <v>6.246808592232298</v>
       </c>
       <c r="C22">
-        <v>1.048125119802762</v>
+        <v>0.7960909523305304</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.02025060454679206</v>
+        <v>0.03812988651777616</v>
       </c>
       <c r="F22">
-        <v>2.667416158031969</v>
+        <v>2.667416158031997</v>
       </c>
       <c r="G22">
-        <v>0.0007564409869842982</v>
+        <v>1.406570251911603</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.7462288012196439</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.863928265100697</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.6185758823337437</v>
+        <v>0.5780874019731215</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2.149192461326464</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.344122904537642</v>
+        <v>6.001525273952325</v>
       </c>
       <c r="C23">
-        <v>1.001834167187383</v>
+        <v>0.7688813178301928</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.01990125413275301</v>
+        <v>0.03776934889425299</v>
       </c>
       <c r="F23">
-        <v>2.562285531758775</v>
+        <v>2.562285531758803</v>
       </c>
       <c r="G23">
-        <v>0.000761523945940102</v>
+        <v>1.354288981347594</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.7266796013884402</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.784987905752558</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5934922781552814</v>
+        <v>0.5556120396111908</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2.127323394606947</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.187898389199802</v>
+        <v>5.088727765837291</v>
       </c>
       <c r="C24">
-        <v>0.8334406185143166</v>
+        <v>0.6670948649658612</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.0186516521020863</v>
+        <v>0.0366077640908955</v>
       </c>
       <c r="F24">
         <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.0007807018670281403</v>
+        <v>1.170854929868284</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.6599119149188653</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.497714989877565</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.5022089612991181</v>
+        <v>0.4725322392999232</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2.055902217197399</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.017949456416943</v>
+        <v>4.131044370429606</v>
       </c>
       <c r="C25">
-        <v>0.6628894294409235</v>
+        <v>0.5592719898015162</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.01743398174916155</v>
+        <v>0.03573746144767043</v>
       </c>
       <c r="F25">
-        <v>1.757113814925091</v>
+        <v>1.757113814925063</v>
       </c>
       <c r="G25">
-        <v>0.0008014703749599047</v>
+        <v>0.9986351154422408</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.6008862015925729</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.206921627921119</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4098741063508129</v>
+        <v>0.3864104870003331</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.998372782122033</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_48/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_48/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.442332681588141</v>
+        <v>1.594256754476419</v>
       </c>
       <c r="C2">
-        <v>0.4809344573704095</v>
+        <v>0.2068058676653948</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.03537943717473624</v>
+        <v>0.08464720699963557</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746263</v>
       </c>
       <c r="G2">
-        <v>0.8891437067569115</v>
+        <v>0.9996598946632673</v>
       </c>
       <c r="H2">
-        <v>0.5664105030550246</v>
+        <v>0.9948011047668928</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3252402241880503</v>
+        <v>0.2284930407219719</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.982972383210722</v>
+        <v>1.467279717020176</v>
       </c>
       <c r="C3">
-        <v>0.4282301376688338</v>
+        <v>0.1895804479934782</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.03529314376018888</v>
+        <v>0.08525993122890085</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.387822817061874</v>
       </c>
       <c r="G3">
-        <v>0.8237199633589682</v>
+        <v>0.9972475033090973</v>
       </c>
       <c r="H3">
-        <v>0.5477175447852716</v>
+        <v>1.001224761628606</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2848562326348514</v>
+        <v>0.2188501910666218</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.703739884082893</v>
+        <v>1.389840441853039</v>
       </c>
       <c r="C4">
-        <v>0.3959824473155606</v>
+        <v>0.1789269812140901</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.03531136323982587</v>
+        <v>0.08567575437267116</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305168915</v>
       </c>
       <c r="G4">
-        <v>0.7872917417366381</v>
+        <v>0.996835350407963</v>
       </c>
       <c r="H4">
-        <v>0.5382725825564449</v>
+        <v>1.005927678669892</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2604941771663789</v>
+        <v>0.2130565449390787</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.590548207256631</v>
+        <v>1.358415599380976</v>
       </c>
       <c r="C5">
-        <v>0.3828594479788876</v>
+        <v>0.1745663253504404</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.03533588150324185</v>
+        <v>0.08585516233785206</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.7733079200996542</v>
+        <v>0.9969343464569249</v>
       </c>
       <c r="H5">
-        <v>0.5348978183489379</v>
+        <v>1.008034223351146</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2506627982701275</v>
+        <v>0.2107274742437113</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.57178586597945</v>
+        <v>1.353205526329418</v>
       </c>
       <c r="C6">
-        <v>0.3806812016285619</v>
+        <v>0.1738410796224059</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.03534096250001895</v>
+        <v>0.08588555416254273</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.7710356930338236</v>
+        <v>0.9969668530795701</v>
       </c>
       <c r="H6">
-        <v>0.5343650501336299</v>
+        <v>1.008395471770157</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2490357712152047</v>
+        <v>0.2103426576496048</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.702211060336822</v>
+        <v>1.389416099450102</v>
       </c>
       <c r="C7">
-        <v>0.3958054051204272</v>
+        <v>0.1788682498439869</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.0353116257210857</v>
+        <v>0.08567813362120269</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.7870997663194856</v>
+        <v>0.9968356071144058</v>
       </c>
       <c r="H7">
-        <v>0.5382251963657865</v>
+        <v>1.005955319669567</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2603612137309312</v>
+        <v>0.2130250052612297</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.283291190726629</v>
+        <v>1.550366169748315</v>
       </c>
       <c r="C8">
-        <v>0.4627321073064081</v>
+        <v>0.2008825623651944</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.03533439848078146</v>
+        <v>0.08485025177770389</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813336</v>
       </c>
       <c r="G8">
-        <v>0.8657587452447757</v>
+        <v>0.9986050864754503</v>
       </c>
       <c r="H8">
-        <v>0.5595201346313274</v>
+        <v>0.9968580591419993</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3112177698952081</v>
+        <v>0.2251417572213086</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.450675772641148</v>
+        <v>1.870164278908419</v>
       </c>
       <c r="C9">
-        <v>0.5953895135296534</v>
+        <v>0.2434404998932109</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.03598382046276249</v>
+        <v>0.08354121184072483</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>1.053666017954583</v>
+        <v>1.010643705149562</v>
       </c>
       <c r="H9">
-        <v>0.6192384563946973</v>
+        <v>0.9850723688647633</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4150255340473876</v>
+        <v>0.2499161303019974</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.334014454559849</v>
+        <v>2.107705893413765</v>
       </c>
       <c r="C10">
-        <v>0.6945334237620102</v>
+        <v>0.2743364079192645</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.03689053865373459</v>
+        <v>0.08277140586577048</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>1.218377840696235</v>
+        <v>1.024833746467522</v>
       </c>
       <c r="H10">
-        <v>0.6768973031603309</v>
+        <v>0.9801514494415926</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4947674682515242</v>
+        <v>0.268744908329424</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.743655047492496</v>
+        <v>2.216342346670274</v>
       </c>
       <c r="C11">
-        <v>0.740213083768964</v>
+        <v>0.2883117726792079</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.03741161996497233</v>
+        <v>0.08246294090225703</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>1.300665419639927</v>
+        <v>1.032476204802606</v>
       </c>
       <c r="H11">
-        <v>0.7068454420213186</v>
+        <v>0.9787347745953525</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.5320503295217804</v>
+        <v>0.2774489424064086</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.900107978896415</v>
+        <v>2.257563597434967</v>
       </c>
       <c r="C12">
-        <v>0.7576142155615742</v>
+        <v>0.2935924650618631</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.03762600502662394</v>
+        <v>0.0823521381558443</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>1.33303407091887</v>
+        <v>1.035543042637613</v>
       </c>
       <c r="H12">
-        <v>0.7187902857845074</v>
+        <v>0.9783173326215433</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5463372030314986</v>
+        <v>0.2807650170843345</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.866350245084675</v>
+        <v>2.248682173484838</v>
       </c>
       <c r="C13">
-        <v>0.7538616314278386</v>
+        <v>0.292455684814712</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.03757904969296355</v>
+        <v>0.0823757342770719</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>1.326006579192381</v>
+        <v>1.03487482571046</v>
       </c>
       <c r="H13">
-        <v>0.7161896811663837</v>
+        <v>0.9784019293028337</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5432523583231728</v>
+        <v>0.2800499479447893</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.756498562673244</v>
+        <v>2.219731980915753</v>
       </c>
       <c r="C14">
-        <v>0.7416424921216844</v>
+        <v>0.2887464487525335</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.03742890671751375</v>
+        <v>0.0824537046823508</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>1.303303268900834</v>
+        <v>1.032725040268645</v>
       </c>
       <c r="H14">
-        <v>0.7078156148832306</v>
+        <v>0.9786980412038417</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5332221925202134</v>
+        <v>0.2777213555490903</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.689391195253108</v>
+        <v>2.202009957599728</v>
       </c>
       <c r="C15">
-        <v>0.7341720005563559</v>
+        <v>0.2864729383244082</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.0373392076104615</v>
+        <v>0.08250224618958057</v>
       </c>
       <c r="F15">
-        <v>2.428326063136538</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>1.289558941641559</v>
+        <v>1.031430800351501</v>
       </c>
       <c r="H15">
-        <v>0.7027671424701225</v>
+        <v>0.9788949433939251</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5271011455565713</v>
+        <v>0.2762976389712151</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.307417787250017</v>
+        <v>2.100617860953321</v>
       </c>
       <c r="C16">
-        <v>0.6915614471336937</v>
+        <v>0.2734214826780601</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.03685879009923099</v>
+        <v>0.08279240491027373</v>
       </c>
       <c r="F16">
-        <v>2.264147245220144</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>1.213160631769881</v>
+        <v>1.024358362650844</v>
       </c>
       <c r="H16">
-        <v>0.6750206885080559</v>
+        <v>0.9802606422009603</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.49235319003283</v>
+        <v>0.2681788790066406</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.075229081382361</v>
+        <v>2.038564960898441</v>
       </c>
       <c r="C17">
-        <v>0.6655828989228496</v>
+        <v>0.2653944678737048</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.03659286499099679</v>
+        <v>0.08298109885406291</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337215605</v>
       </c>
       <c r="G17">
-        <v>1.168278540947881</v>
+        <v>1.020325225425523</v>
       </c>
       <c r="H17">
-        <v>0.6589983162470787</v>
+        <v>0.9813095508057188</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4713105821682149</v>
+        <v>0.2632338822564435</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.94240105233979</v>
+        <v>2.002928140200027</v>
       </c>
       <c r="C18">
-        <v>0.6506938419693427</v>
+        <v>0.2607700770974191</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.03645003930490098</v>
+        <v>0.08309355745585378</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>1.143146245773352</v>
+        <v>1.018117105448013</v>
       </c>
       <c r="H18">
-        <v>0.6501280765911304</v>
+        <v>0.981990163888895</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4593007144647459</v>
+        <v>0.2604027026912661</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.897545614749617</v>
+        <v>1.990871465402563</v>
       </c>
       <c r="C19">
-        <v>0.6456612171794234</v>
+        <v>0.2592030579758671</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.03640337896394996</v>
+        <v>0.08313230824950857</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.6191636801734006</v>
       </c>
       <c r="G19">
-        <v>1.134749868094872</v>
+        <v>1.01738858430457</v>
       </c>
       <c r="H19">
-        <v>0.6471821142480394</v>
+        <v>0.9822338601534568</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4552497240454159</v>
+        <v>0.2594463526972532</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.099869938978316</v>
+        <v>2.045164972009104</v>
       </c>
       <c r="C20">
-        <v>0.6683427254493495</v>
+        <v>0.2662497303061855</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.03662011507652529</v>
+        <v>0.08296060560301299</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>1.172984633124088</v>
+        <v>1.020742991157334</v>
       </c>
       <c r="H20">
-        <v>0.6606677019255756</v>
+        <v>0.9811898855237757</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4735407863617525</v>
+        <v>0.263758934100025</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.788726751465504</v>
+        <v>2.228233102434558</v>
       </c>
       <c r="C21">
-        <v>0.7452285748595671</v>
+        <v>0.2898362532223473</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.03747253192419286</v>
+        <v>0.08243063982486554</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723492197</v>
       </c>
       <c r="G21">
-        <v>1.309937703956223</v>
+        <v>1.033351777985985</v>
       </c>
       <c r="H21">
-        <v>0.7102582882970125</v>
+        <v>0.9786078290428577</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5361635141229613</v>
+        <v>0.2784047747531133</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.246808592232298</v>
+        <v>2.348362399163022</v>
       </c>
       <c r="C22">
-        <v>0.7960909523305304</v>
+        <v>0.3051844982113039</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.03812988651777616</v>
+        <v>0.08211928858399631</v>
       </c>
       <c r="F22">
-        <v>2.667416158031997</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>1.406570251911603</v>
+        <v>1.042600551547253</v>
       </c>
       <c r="H22">
-        <v>0.7462288012196439</v>
+        <v>0.9776144489894989</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5780874019731215</v>
+        <v>0.2880935684565031</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.001525273952325</v>
+        <v>2.284202887031825</v>
       </c>
       <c r="C23">
-        <v>0.7688813178301928</v>
+        <v>0.2969989936916306</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.03776934889425299</v>
+        <v>0.08228225684312562</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307915566</v>
       </c>
       <c r="G23">
-        <v>1.354288981347594</v>
+        <v>1.037571371634414</v>
       </c>
       <c r="H23">
-        <v>0.7266796013884402</v>
+        <v>0.9780808427348404</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5556120396111908</v>
+        <v>0.2829117485195951</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.088727765837291</v>
+        <v>2.042180987939673</v>
       </c>
       <c r="C24">
-        <v>0.6670948649658612</v>
+        <v>0.2658630959149093</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.0366077640908955</v>
+        <v>0.0829698582180125</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902313</v>
       </c>
       <c r="G24">
-        <v>1.170854929868284</v>
+        <v>1.020553774969443</v>
       </c>
       <c r="H24">
-        <v>0.6599119149188653</v>
+        <v>0.9812437445979754</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4725322392999232</v>
+        <v>0.2635215215250781</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.131044370429606</v>
+        <v>1.783199384725606</v>
       </c>
       <c r="C25">
-        <v>0.5592719898015162</v>
+        <v>0.2319928200656705</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.03573746144767043</v>
+        <v>0.08386165315665473</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347308</v>
       </c>
       <c r="G25">
-        <v>0.9986351154422408</v>
+        <v>1.006457056464754</v>
       </c>
       <c r="H25">
-        <v>0.6008862015925729</v>
+        <v>0.987607705835714</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3864104870003331</v>
+        <v>0.2431045683398594</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_48/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_48/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.594256754476419</v>
+        <v>3.442332681588027</v>
       </c>
       <c r="C2">
-        <v>0.2068058676653948</v>
+        <v>0.4809344573705516</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.08464720699963557</v>
+        <v>0.03537943717475045</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746263</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.9996598946632673</v>
+        <v>0.8891437067569399</v>
       </c>
       <c r="H2">
-        <v>0.9948011047668928</v>
+        <v>0.5664105030550388</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2284930407219719</v>
+        <v>0.3252402241881214</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.467279717020176</v>
+        <v>2.982972383210551</v>
       </c>
       <c r="C3">
-        <v>0.1895804479934782</v>
+        <v>0.4282301376692317</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.08525993122890085</v>
+        <v>0.03529314376019776</v>
       </c>
       <c r="F3">
-        <v>0.387822817061874</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.9972475033090973</v>
+        <v>0.8237199633589398</v>
       </c>
       <c r="H3">
-        <v>1.001224761628606</v>
+        <v>0.5477175447851721</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2188501910666218</v>
+        <v>0.2848562326349651</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.389840441853039</v>
+        <v>2.703739884083063</v>
       </c>
       <c r="C4">
-        <v>0.1789269812140901</v>
+        <v>0.3959824473156743</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.08567575437267116</v>
+        <v>0.03531136323983297</v>
       </c>
       <c r="F4">
-        <v>0.3531389305168915</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.996835350407963</v>
+        <v>0.7872917417365954</v>
       </c>
       <c r="H4">
-        <v>1.005927678669892</v>
+        <v>0.5382725825564307</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2130565449390787</v>
+        <v>0.2604941771662936</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.358415599380976</v>
+        <v>2.590548207256518</v>
       </c>
       <c r="C5">
-        <v>0.1745663253504404</v>
+        <v>0.3828594479787739</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.08585516233785206</v>
+        <v>0.03533588150326139</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.9969343464569249</v>
+        <v>0.7733079200995547</v>
       </c>
       <c r="H5">
-        <v>1.008034223351146</v>
+        <v>0.5348978183489379</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2107274742437113</v>
+        <v>0.2506627982701986</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.353205526329418</v>
+        <v>2.571785865979564</v>
       </c>
       <c r="C6">
-        <v>0.1738410796224059</v>
+        <v>0.3806812016287893</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.08588555416254273</v>
+        <v>0.03534096249999408</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.9969668530795701</v>
+        <v>0.7710356930339373</v>
       </c>
       <c r="H6">
-        <v>1.008395471770157</v>
+        <v>0.5343650501336157</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2103426576496048</v>
+        <v>0.2490357712151052</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.389416099450102</v>
+        <v>2.702211060336936</v>
       </c>
       <c r="C7">
-        <v>0.1788682498439869</v>
+        <v>0.3958054051202282</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.08567813362120269</v>
+        <v>0.03531162572107682</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.9968356071144058</v>
+        <v>0.7870997663194714</v>
       </c>
       <c r="H7">
-        <v>1.005955319669567</v>
+        <v>0.5382251963657865</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2130250052612297</v>
+        <v>0.2603612137309597</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.550366169748315</v>
+        <v>3.283291190726686</v>
       </c>
       <c r="C8">
-        <v>0.2008825623651944</v>
+        <v>0.4627321073063797</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.08485025177770389</v>
+        <v>0.03533439848078324</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813336</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.9986050864754503</v>
+        <v>0.8657587452448041</v>
       </c>
       <c r="H8">
-        <v>0.9968580591419993</v>
+        <v>0.5595201346314553</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2251417572213086</v>
+        <v>0.3112177698951797</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.870164278908419</v>
+        <v>4.450675772641091</v>
       </c>
       <c r="C9">
-        <v>0.2434404998932109</v>
+        <v>0.5953895135297671</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.08354121184072483</v>
+        <v>0.03598382046278203</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>1.010643705149562</v>
+        <v>1.053666017954541</v>
       </c>
       <c r="H9">
-        <v>0.9850723688647633</v>
+        <v>0.6192384563945694</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2499161303019974</v>
+        <v>0.4150255340474018</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.107705893413765</v>
+        <v>5.334014454559792</v>
       </c>
       <c r="C10">
-        <v>0.2743364079192645</v>
+        <v>0.6945334237618965</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.08277140586577048</v>
+        <v>0.03689053865374881</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>1.024833746467522</v>
+        <v>1.218377840696235</v>
       </c>
       <c r="H10">
-        <v>0.9801514494415926</v>
+        <v>0.6768973031603025</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.268744908329424</v>
+        <v>0.4947674682514247</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.216342346670274</v>
+        <v>5.743655047492553</v>
       </c>
       <c r="C11">
-        <v>0.2883117726792079</v>
+        <v>0.7402130837691914</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.08246294090225703</v>
+        <v>0.03741161996499187</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>1.032476204802606</v>
+        <v>1.300665419639927</v>
       </c>
       <c r="H11">
-        <v>0.9787347745953525</v>
+        <v>0.7068454420213186</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2774489424064086</v>
+        <v>0.532050329521752</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.257563597434967</v>
+        <v>5.900107978896528</v>
       </c>
       <c r="C12">
-        <v>0.2935924650618631</v>
+        <v>0.75761421556183</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.0823521381558443</v>
+        <v>0.03762600502665769</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>1.035543042637613</v>
+        <v>1.333034070918785</v>
       </c>
       <c r="H12">
-        <v>0.9783173326215433</v>
+        <v>0.7187902857845927</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2807650170843345</v>
+        <v>0.546337203031527</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.248682173484838</v>
+        <v>5.866350245084789</v>
       </c>
       <c r="C13">
-        <v>0.292455684814712</v>
+        <v>0.7538616314280091</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.0823757342770719</v>
+        <v>0.03757904969296533</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>1.03487482571046</v>
+        <v>1.326006579192381</v>
       </c>
       <c r="H13">
-        <v>0.9784019293028337</v>
+        <v>0.7161896811664121</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2800499479447893</v>
+        <v>0.5432523583231017</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.219731980915753</v>
+        <v>5.756498562673244</v>
       </c>
       <c r="C14">
-        <v>0.2887464487525335</v>
+        <v>0.7416424921216844</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.0824537046823508</v>
+        <v>0.03742890671751198</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>1.032725040268645</v>
+        <v>1.303303268900777</v>
       </c>
       <c r="H14">
-        <v>0.9786980412038417</v>
+        <v>0.7078156148832306</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2777213555490903</v>
+        <v>0.5332221925201992</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.202009957599728</v>
+        <v>5.689391195253052</v>
       </c>
       <c r="C15">
-        <v>0.2864729383244082</v>
+        <v>0.7341720005559296</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.08250224618958057</v>
+        <v>0.03733920761046861</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>1.031430800351501</v>
+        <v>1.289558941641616</v>
       </c>
       <c r="H15">
-        <v>0.9788949433939251</v>
+        <v>0.7027671424700088</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2762976389712151</v>
+        <v>0.5271011455566139</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.100617860953321</v>
+        <v>5.307417787249847</v>
       </c>
       <c r="C16">
-        <v>0.2734214826780601</v>
+        <v>0.6915614471338074</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.08279240491027373</v>
+        <v>0.03685879009923454</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>1.024358362650844</v>
+        <v>1.213160631769881</v>
       </c>
       <c r="H16">
-        <v>0.9802606422009603</v>
+        <v>0.6750206885079422</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2681788790066406</v>
+        <v>0.4923531900328015</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.038564960898441</v>
+        <v>5.075229081382304</v>
       </c>
       <c r="C17">
-        <v>0.2653944678737048</v>
+        <v>0.6655828989229633</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.08298109885406291</v>
+        <v>0.03659286499094172</v>
       </c>
       <c r="F17">
-        <v>0.6400460337215605</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>1.020325225425523</v>
+        <v>1.168278540947824</v>
       </c>
       <c r="H17">
-        <v>0.9813095508057188</v>
+        <v>0.6589983162470787</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2632338822564435</v>
+        <v>0.4713105821682007</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.002928140200027</v>
+        <v>4.942401052339733</v>
       </c>
       <c r="C18">
-        <v>0.2607700770974191</v>
+        <v>0.6506938419690584</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.08309355745585378</v>
+        <v>0.03645003930487967</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>1.018117105448013</v>
+        <v>1.143146245773465</v>
       </c>
       <c r="H18">
-        <v>0.981990163888895</v>
+        <v>0.6501280765911304</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2604027026912661</v>
+        <v>0.4593007144647174</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.990871465402563</v>
+        <v>4.897545614749617</v>
       </c>
       <c r="C19">
-        <v>0.2592030579758671</v>
+        <v>0.6456612171795655</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.08313230824950857</v>
+        <v>0.03640337896391088</v>
       </c>
       <c r="F19">
-        <v>0.6191636801734006</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>1.01738858430457</v>
+        <v>1.134749868094787</v>
       </c>
       <c r="H19">
-        <v>0.9822338601534568</v>
+        <v>0.6471821142480394</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2594463526972532</v>
+        <v>0.4552497240455153</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.045164972009104</v>
+        <v>5.099869938978429</v>
       </c>
       <c r="C20">
-        <v>0.2662497303061855</v>
+        <v>0.6683427254495768</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.08296060560301299</v>
+        <v>0.03662011507652707</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>1.020742991157334</v>
+        <v>1.172984633124031</v>
       </c>
       <c r="H20">
-        <v>0.9811898855237757</v>
+        <v>0.6606677019255756</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.263758934100025</v>
+        <v>0.4735407863617809</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.228233102434558</v>
+        <v>5.788726751465617</v>
       </c>
       <c r="C21">
-        <v>0.2898362532223473</v>
+        <v>0.7452285748597092</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.08243063982486554</v>
+        <v>0.03747253192419286</v>
       </c>
       <c r="F21">
-        <v>0.7228739723492197</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>1.033351777985985</v>
+        <v>1.309937703956251</v>
       </c>
       <c r="H21">
-        <v>0.9786078290428577</v>
+        <v>0.7102582882971262</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2784047747531133</v>
+        <v>0.5361635141229613</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.348362399163022</v>
+        <v>6.246808592232469</v>
       </c>
       <c r="C22">
-        <v>0.3051844982113039</v>
+        <v>0.7960909523304736</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.08211928858399631</v>
+        <v>0.03812988651777438</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>1.042600551547253</v>
+        <v>1.406570251911518</v>
       </c>
       <c r="H22">
-        <v>0.9776144489894989</v>
+        <v>0.7462288012195302</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2880935684565031</v>
+        <v>0.5780874019730362</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.284202887031825</v>
+        <v>6.001525273952382</v>
       </c>
       <c r="C23">
-        <v>0.2969989936916306</v>
+        <v>0.7688813178301928</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.08228225684312562</v>
+        <v>0.03776934889425476</v>
       </c>
       <c r="F23">
-        <v>0.7472568307915566</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>1.037571371634414</v>
+        <v>1.354288981347594</v>
       </c>
       <c r="H23">
-        <v>0.9780808427348404</v>
+        <v>0.7266796013883265</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2829117485195951</v>
+        <v>0.5556120396112192</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.042180987939673</v>
+        <v>5.088727765837348</v>
       </c>
       <c r="C24">
-        <v>0.2658630959149093</v>
+        <v>0.6670948649656623</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.0829698582180125</v>
+        <v>0.0366077640908884</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902313</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>1.020553774969443</v>
+        <v>1.170854929868256</v>
       </c>
       <c r="H24">
-        <v>0.9812437445979754</v>
+        <v>0.6599119149187516</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2635215215250781</v>
+        <v>0.4725322392999658</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.783199384725606</v>
+        <v>4.13104437042972</v>
       </c>
       <c r="C25">
-        <v>0.2319928200656705</v>
+        <v>0.5592719898015162</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.08386165315665473</v>
+        <v>0.03573746144767043</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347308</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>1.006457056464754</v>
+        <v>0.9986351154422977</v>
       </c>
       <c r="H25">
-        <v>0.987607705835714</v>
+        <v>0.6008862015925729</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2431045683398594</v>
+        <v>0.3864104870003331</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_48/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_48/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.442332681588027</v>
+        <v>1.12615458027696</v>
       </c>
       <c r="C2">
-        <v>0.4809344573705516</v>
+        <v>0.0919826224308693</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.03537943717475045</v>
+        <v>0.06284134889537185</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.8891437067569399</v>
+        <v>0.6284066068824359</v>
       </c>
       <c r="H2">
-        <v>0.5664105030550388</v>
+        <v>0.004951083235845533</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.00812676526038647</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.4933907466679841</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.5269849519363028</v>
       </c>
       <c r="L2">
-        <v>0.3252402241881214</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.9685275137843234</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.2715430878883183</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>1.032042096949641</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.982972383210551</v>
+        <v>0.9831675001479709</v>
       </c>
       <c r="C3">
-        <v>0.4282301376692317</v>
+        <v>0.08224111333609585</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.03529314376019776</v>
+        <v>0.05635421259487572</v>
       </c>
       <c r="F3">
-        <v>1.260820407314654</v>
+        <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.8237199633589398</v>
+        <v>0.6083369793929734</v>
       </c>
       <c r="H3">
-        <v>0.5477175447851721</v>
+        <v>0.006865212180723723</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.01047905804821125</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.4885668773477079</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.5201746792354669</v>
       </c>
       <c r="L3">
-        <v>0.2848562326349651</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.8425708601843667</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.2385294613235942</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>1.065097411235232</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.703739884083063</v>
+        <v>0.8950326554970616</v>
       </c>
       <c r="C4">
-        <v>0.3959824473156743</v>
+        <v>0.07633965575965362</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.03531136323983297</v>
+        <v>0.05234920873390969</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.7872917417365954</v>
+        <v>0.5963672522920263</v>
       </c>
       <c r="H4">
-        <v>0.5382725825564307</v>
+        <v>0.00824660863429158</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.0121703487546414</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.4858528333853798</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.5161484517988804</v>
       </c>
       <c r="L4">
-        <v>0.2604941771662936</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.7651898848949941</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.2182747821881748</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>1.085929188428064</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.590548207256518</v>
+        <v>0.8581230693790189</v>
       </c>
       <c r="C5">
-        <v>0.3828594479787739</v>
+        <v>0.07408535450104381</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.03533588150326139</v>
+        <v>0.05066902445802768</v>
       </c>
       <c r="F5">
-        <v>1.090973950927989</v>
+        <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.7733079200995547</v>
+        <v>0.5908068669826321</v>
       </c>
       <c r="H5">
-        <v>0.5348978183489379</v>
+        <v>0.008864230259065214</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.01300735814945275</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.4844113211567489</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.5139673315261533</v>
       </c>
       <c r="L5">
-        <v>0.2506627982701986</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.7333558524182706</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.2100643720728073</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>1.094296543958442</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.571785865979564</v>
+        <v>0.8508814226171921</v>
       </c>
       <c r="C6">
-        <v>0.3806812016287893</v>
+        <v>0.07387599183361004</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.03534096249999408</v>
+        <v>0.05033817548362585</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.7710356930339373</v>
+        <v>0.5889525654201506</v>
       </c>
       <c r="H6">
-        <v>0.5343650501336157</v>
+        <v>0.008975663959893104</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.01326461729292028</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.4836922483216668</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.512902091013494</v>
       </c>
       <c r="L6">
-        <v>0.2490357712151052</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.7277219239134638</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.2087522045181061</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>1.09538756469437</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.702211060336936</v>
+        <v>0.8915003428561761</v>
       </c>
       <c r="C7">
-        <v>0.3958054051202282</v>
+        <v>0.07675798851257554</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.03531162572107682</v>
+        <v>0.05218573998111076</v>
       </c>
       <c r="F7">
         <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.7870997663194714</v>
+        <v>0.5937366607179086</v>
       </c>
       <c r="H7">
-        <v>0.5382251963657865</v>
+        <v>0.008269912242688943</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.01247750342886533</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.4845154223514712</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.5141944236105438</v>
       </c>
       <c r="L7">
-        <v>0.2603612137309597</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.7638099468251198</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.2183041595492767</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>1.085223848468362</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.283291190726686</v>
+        <v>1.072863772572902</v>
       </c>
       <c r="C8">
-        <v>0.4627321073063797</v>
+        <v>0.08920514090085163</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.03533439848078324</v>
+        <v>0.06042148464640817</v>
       </c>
       <c r="F8">
-        <v>1.39074283177348</v>
+        <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.8657587452448041</v>
+        <v>0.6180380046718312</v>
       </c>
       <c r="H8">
-        <v>0.5595201346314553</v>
+        <v>0.005582715969907448</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.009239303555409251</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.4899426754352447</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.5220698704630813</v>
       </c>
       <c r="L8">
-        <v>0.3112177698951797</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.9238279556802809</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.2603429322195012</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>1.042333202025567</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.450675772641091</v>
+        <v>1.431504531278392</v>
       </c>
       <c r="C9">
-        <v>0.5953895135297671</v>
+        <v>0.1135773245288334</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.03598382046278203</v>
+        <v>0.07667754951639694</v>
       </c>
       <c r="F9">
-        <v>1.895061171842812</v>
+        <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>1.053666017954541</v>
+        <v>0.6733153332885848</v>
       </c>
       <c r="H9">
-        <v>0.6192384563945694</v>
+        <v>0.002022795584875281</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.004505520204892477</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.5050016840207121</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.5422622953160854</v>
       </c>
       <c r="L9">
-        <v>0.4150255340474018</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.23934387251137</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.3427569018920309</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0.9639432565554857</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.334014454559792</v>
+        <v>1.678538092762267</v>
       </c>
       <c r="C10">
-        <v>0.6945334237618965</v>
+        <v>0.1336886154977179</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.03689053865374881</v>
+        <v>0.08399380098778053</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>1.218377840696235</v>
+        <v>0.7024256869552374</v>
       </c>
       <c r="H10">
-        <v>0.6768973031603025</v>
+        <v>0.0008525615107592976</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.002624718239855994</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.5105337970214237</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.5484363019711793</v>
       </c>
       <c r="L10">
-        <v>0.4947674682514247</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.464688530005446</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.3855945659902176</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0.9064983256713322</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.743655047492553</v>
+        <v>1.666777115062843</v>
       </c>
       <c r="C11">
-        <v>0.7402130837691914</v>
+        <v>0.1560514718453447</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.03741161996499187</v>
+        <v>0.05388864014434169</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>1.300665419639927</v>
+        <v>0.6083298507570731</v>
       </c>
       <c r="H11">
-        <v>0.7068454420213186</v>
+        <v>0.0194955277686546</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.002846829145958907</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.4586441527810194</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.4775069444275033</v>
       </c>
       <c r="L11">
-        <v>0.532050329521752</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.508975192830462</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.2634523571485943</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0.8698678391143186</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.900107978896528</v>
+        <v>1.60921263248369</v>
       </c>
       <c r="C12">
-        <v>0.75761421556183</v>
+        <v>0.1711066314503995</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.03762600502665769</v>
+        <v>0.03502482834216814</v>
       </c>
       <c r="F12">
-        <v>2.518780942186368</v>
+        <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>1.333034070918785</v>
+        <v>0.5318776128196703</v>
       </c>
       <c r="H12">
-        <v>0.7187902857845927</v>
+        <v>0.05832820181657183</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.002847858844760687</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.4180224974987397</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.4241490694912287</v>
       </c>
       <c r="L12">
-        <v>0.546337203031527</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.499446581319319</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1714716524797595</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0.8647729560026818</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.866350245084789</v>
+        <v>1.508674649028251</v>
       </c>
       <c r="C13">
-        <v>0.7538616314280091</v>
+        <v>0.1819230234747806</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.03757904969296533</v>
+        <v>0.02346935417296958</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>2.504295469238414</v>
       </c>
       <c r="G13">
-        <v>1.326006579192381</v>
+        <v>0.4604857432095031</v>
       </c>
       <c r="H13">
-        <v>0.7161896811664121</v>
+        <v>0.1143480536128862</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.003080305858247812</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.3815622417253195</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.3781156336017375</v>
       </c>
       <c r="L13">
-        <v>0.5432523583231017</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.446438065214835</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.09793084367193927</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0.8811919302371578</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.756498562673244</v>
+        <v>1.418633224184106</v>
       </c>
       <c r="C14">
-        <v>0.7416424921216844</v>
+        <v>0.1878289254934487</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.03742890671751198</v>
+        <v>0.01975372738462217</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>1.303303268900777</v>
+        <v>0.4132849890095329</v>
       </c>
       <c r="H14">
-        <v>0.7078156148832306</v>
+        <v>0.1639412192409537</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.003460481124476722</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.3580984963706442</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.349644463796988</v>
       </c>
       <c r="L14">
-        <v>0.5332221925201992</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.38961347213376</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.05794458095989796</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0.9036683643857515</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.689391195253052</v>
+        <v>1.386661259140652</v>
       </c>
       <c r="C15">
-        <v>0.7341720005559296</v>
+        <v>0.1884432224082815</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.03733920761046861</v>
+        <v>0.01938429833149735</v>
       </c>
       <c r="F15">
-        <v>2.428326063136538</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>1.289558941641616</v>
+        <v>0.4016037513752408</v>
       </c>
       <c r="H15">
-        <v>0.7027671424700088</v>
+        <v>0.1765618981547448</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.003746685194385257</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.3526493895622096</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.3432364161723953</v>
       </c>
       <c r="L15">
-        <v>0.5271011455566139</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.366327725110295</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.04959969312359291</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0.9122172097381238</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.307417787249847</v>
+        <v>1.301742462535913</v>
       </c>
       <c r="C16">
-        <v>0.6915614471338074</v>
+        <v>0.1773835703000088</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.03685879009923454</v>
+        <v>0.01889812426564497</v>
       </c>
       <c r="F16">
         <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>1.213160631769881</v>
+        <v>0.4027118288112419</v>
       </c>
       <c r="H16">
-        <v>0.6750206885079422</v>
+        <v>0.1643886731299489</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.004647151399197469</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.3569809235469705</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.349130567098527</v>
       </c>
       <c r="L16">
-        <v>0.4923531900328015</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.280586629717504</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.04850643186729897</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0.929761847541883</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.075229081382304</v>
+        <v>1.2839196208121</v>
       </c>
       <c r="C17">
-        <v>0.6655828989229633</v>
+        <v>0.1657813549782645</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.03659286499094172</v>
+        <v>0.01972281123199626</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>1.168278540947824</v>
+        <v>0.4280232715816723</v>
       </c>
       <c r="H17">
-        <v>0.6589983162470787</v>
+        <v>0.1269172089755415</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.005173246819961008</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.3725355908534311</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.3682567621738215</v>
       </c>
       <c r="L17">
-        <v>0.4713105821682007</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.244959370995105</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.06669177849332897</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0.9309133459633259</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.942401052339733</v>
+        <v>1.324412648326529</v>
       </c>
       <c r="C18">
-        <v>0.6506938419690584</v>
+        <v>0.1523420438771694</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.03645003930487967</v>
+        <v>0.0256618729418836</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>1.143146245773465</v>
+        <v>0.4813964627858525</v>
       </c>
       <c r="H18">
-        <v>0.6501280765911304</v>
+        <v>0.07408014886245695</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.005027879109151812</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.4016069117401813</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.4045842573554879</v>
       </c>
       <c r="L18">
-        <v>0.4593007144647174</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.248856443480008</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.1137177502286093</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0.9236456618707081</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.897545614749617</v>
+        <v>1.404368502177419</v>
       </c>
       <c r="C19">
-        <v>0.6456612171795655</v>
+        <v>0.1402375619747005</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.03640337896391088</v>
+        <v>0.04100729648205181</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>2.087706772602971</v>
       </c>
       <c r="G19">
-        <v>1.134749868094787</v>
+        <v>0.5544869012584996</v>
       </c>
       <c r="H19">
-        <v>0.6471821142480394</v>
+        <v>0.0284470911030823</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.004899949996210573</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.4396956601720632</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.4536661069286083</v>
       </c>
       <c r="L19">
-        <v>0.4552497240455153</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.282441741062371</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1963418268876325</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0.919649219660819</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.099869938978429</v>
+        <v>1.603471514807381</v>
       </c>
       <c r="C20">
-        <v>0.6683427254495768</v>
+        <v>0.1298716259518926</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.03662011507652707</v>
+        <v>0.08144791453417</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>1.172984633124031</v>
+        <v>0.6862745786211946</v>
       </c>
       <c r="H20">
-        <v>0.6606677019255756</v>
+        <v>0.001081306877011468</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.003881905684396614</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.5047243304997835</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.5405531983687482</v>
       </c>
       <c r="L20">
-        <v>0.4735407863617809</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.402124198247378</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.3740190492490569</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0.9194637676660342</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.788726751465617</v>
+        <v>1.81585273024541</v>
       </c>
       <c r="C21">
-        <v>0.7452285748597092</v>
+        <v>0.1432716805773566</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.03747253192419286</v>
+        <v>0.09410963813120077</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>1.309937703956251</v>
+        <v>0.7304671178043805</v>
       </c>
       <c r="H21">
-        <v>0.7102582882971262</v>
+        <v>0.000211349562772245</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.00265274820607786</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.5201291460804924</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.5603093794051404</v>
       </c>
       <c r="L21">
-        <v>0.5361635141229613</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.585976810817556</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.4348924296750454</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0.8807242867678076</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.246808592232469</v>
+        <v>1.951685729199198</v>
       </c>
       <c r="C22">
-        <v>0.7960909523304736</v>
+        <v>0.1522786496433213</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.03812988651777438</v>
+        <v>0.1002858202039612</v>
       </c>
       <c r="F22">
-        <v>2.667416158031969</v>
+        <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>1.406570251911518</v>
+        <v>0.7568089287102566</v>
       </c>
       <c r="H22">
-        <v>0.7462288012195302</v>
+        <v>2.099840762914695E-05</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.001847775772232829</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.5289581438852053</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.571476083991115</v>
       </c>
       <c r="L22">
-        <v>0.5780874019730362</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.704411119325044</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.4653873098413328</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0.855466687431532</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.001525273952382</v>
+        <v>1.8829090359703</v>
       </c>
       <c r="C23">
-        <v>0.7688813178301928</v>
+        <v>0.1468983144180243</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.03776934889425476</v>
+        <v>0.0971584601289841</v>
       </c>
       <c r="F23">
-        <v>2.562285531758775</v>
+        <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>1.354288981347594</v>
+        <v>0.7456643735151829</v>
       </c>
       <c r="H23">
-        <v>0.7266796013883265</v>
+        <v>9.599626044987097E-05</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.001926967212760644</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.5257242935301178</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.5677063091543459</v>
       </c>
       <c r="L23">
-        <v>0.5556120396112192</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.642352316813032</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.4489295615440199</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0.8695355676302636</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.088727765837348</v>
+        <v>1.616447602495924</v>
       </c>
       <c r="C24">
-        <v>0.6670948649656623</v>
+        <v>0.1277728032183347</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.0366077640908884</v>
+        <v>0.08505957072116388</v>
       </c>
       <c r="F24">
         <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>1.170854929868256</v>
+        <v>0.6999825582774406</v>
       </c>
       <c r="H24">
-        <v>0.6599119149187516</v>
+        <v>0.0009057244209755844</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.003331046516994007</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.5117956386186506</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.5504698778964894</v>
       </c>
       <c r="L24">
-        <v>0.4725322392999658</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.406030749384712</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.3870797470588769</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0.9230882265950422</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.13104437042972</v>
+        <v>1.329115658350901</v>
       </c>
       <c r="C25">
-        <v>0.5592719898015162</v>
+        <v>0.1077133301035502</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.03573746144767043</v>
+        <v>0.07203436237093186</v>
       </c>
       <c r="F25">
         <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.9986351154422977</v>
+        <v>0.653412582786288</v>
       </c>
       <c r="H25">
-        <v>0.6008862015925729</v>
+        <v>0.002801033840417966</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.006035947922093499</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.4983458585892748</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.5332134274106792</v>
       </c>
       <c r="L25">
-        <v>0.3864104870003331</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.15216918861347</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.3206808519593807</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.9834599167019471</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_48/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_48/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.12615458027696</v>
+        <v>1.05353261687074</v>
       </c>
       <c r="C2">
-        <v>0.0919826224308693</v>
+        <v>0.09406176702037783</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.06284134889537185</v>
+        <v>0.05995880544214671</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.6284066068824359</v>
+        <v>0.536886583494649</v>
       </c>
       <c r="H2">
-        <v>0.004951083235845533</v>
+        <v>0.003673944866017131</v>
       </c>
       <c r="I2">
-        <v>0.00812676526038647</v>
+        <v>0.005824391390284234</v>
       </c>
       <c r="J2">
-        <v>0.4933907466679841</v>
+        <v>0.4642811718852897</v>
       </c>
       <c r="K2">
-        <v>0.5269849519363028</v>
+        <v>0.4563667542777061</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2033816547031613</v>
       </c>
       <c r="M2">
-        <v>0.9685275137843234</v>
+        <v>0.1420416847915611</v>
       </c>
       <c r="N2">
-        <v>0.2715430878883183</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.9504693431443911</v>
       </c>
       <c r="P2">
-        <v>1.032042096949641</v>
+        <v>0.2801695545586398</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0.9756474824033781</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9831675001479709</v>
+        <v>0.9230973489939629</v>
       </c>
       <c r="C3">
-        <v>0.08224111333609585</v>
+        <v>0.0822850080724109</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.05635421259487572</v>
+        <v>0.05415466988141659</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.6083369793929734</v>
+        <v>0.526587697460414</v>
       </c>
       <c r="H3">
-        <v>0.006865212180723723</v>
+        <v>0.005190715938408808</v>
       </c>
       <c r="I3">
-        <v>0.01047905804821125</v>
+        <v>0.007524981633927563</v>
       </c>
       <c r="J3">
-        <v>0.4885668773477079</v>
+        <v>0.4593166667505031</v>
       </c>
       <c r="K3">
-        <v>0.5201746792354669</v>
+        <v>0.4546675508714095</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2070630628429484</v>
       </c>
       <c r="M3">
-        <v>0.8425708601843667</v>
+        <v>0.1386404755223225</v>
       </c>
       <c r="N3">
-        <v>0.2385294613235942</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.8285043375451551</v>
       </c>
       <c r="P3">
-        <v>1.065097411235232</v>
+        <v>0.2466859079337809</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>1.006192884404454</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8950326554970616</v>
+        <v>0.8424435350648594</v>
       </c>
       <c r="C4">
-        <v>0.07633965575965362</v>
+        <v>0.07518566687052441</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.05234920873390969</v>
+        <v>0.05056136975351677</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.5963672522920263</v>
+        <v>0.5206026996584967</v>
       </c>
       <c r="H4">
-        <v>0.00824660863429158</v>
+        <v>0.006293519681947246</v>
       </c>
       <c r="I4">
-        <v>0.0121703487546414</v>
+        <v>0.008769031166498742</v>
       </c>
       <c r="J4">
-        <v>0.4858528333853798</v>
+        <v>0.4562834202669777</v>
       </c>
       <c r="K4">
-        <v>0.5161484517988804</v>
+        <v>0.4536857305839774</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2093152233256319</v>
       </c>
       <c r="M4">
-        <v>0.7651898848949941</v>
+        <v>0.1371181679110638</v>
       </c>
       <c r="N4">
-        <v>0.2182747821881748</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.7534521759003781</v>
       </c>
       <c r="P4">
-        <v>1.085929188428064</v>
+        <v>0.2261456706162193</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>1.025546696591459</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8581230693790189</v>
+        <v>0.8085869177154166</v>
       </c>
       <c r="C5">
-        <v>0.07408535450104381</v>
+        <v>0.07246957522730924</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.05066902445802768</v>
+        <v>0.04904997051641757</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.5908068669826321</v>
+        <v>0.5175663213818353</v>
       </c>
       <c r="H5">
-        <v>0.008864230259065214</v>
+        <v>0.006788404417607946</v>
       </c>
       <c r="I5">
-        <v>0.01300735814945275</v>
+        <v>0.009423065368452832</v>
       </c>
       <c r="J5">
-        <v>0.4844113211567489</v>
+        <v>0.454681886466858</v>
       </c>
       <c r="K5">
-        <v>0.5139673315261533</v>
+        <v>0.4527951734904292</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2099893255735985</v>
       </c>
       <c r="M5">
-        <v>0.7333558524182706</v>
+        <v>0.1365020869707809</v>
       </c>
       <c r="N5">
-        <v>0.2100643720728073</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.7225518546275111</v>
       </c>
       <c r="P5">
-        <v>1.094296543958442</v>
+        <v>0.2178181840292837</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>1.033424354581975</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8508814226171921</v>
+        <v>0.8019216911077649</v>
       </c>
       <c r="C6">
-        <v>0.07387599183361004</v>
+        <v>0.07220091807971585</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.05033817548362585</v>
+        <v>0.04875047660384979</v>
       </c>
       <c r="F6">
         <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.5889525654201506</v>
+        <v>0.5162400909466527</v>
       </c>
       <c r="H6">
-        <v>0.008975663959893104</v>
+        <v>0.006877911578149098</v>
       </c>
       <c r="I6">
-        <v>0.01326461729292028</v>
+        <v>0.009663788659399764</v>
       </c>
       <c r="J6">
-        <v>0.4836922483216668</v>
+        <v>0.4539660222578874</v>
       </c>
       <c r="K6">
-        <v>0.512902091013494</v>
+        <v>0.4520323636245855</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2098071320128057</v>
       </c>
       <c r="M6">
-        <v>0.7277219239134638</v>
+        <v>0.1362399912482211</v>
       </c>
       <c r="N6">
-        <v>0.2087522045181061</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.7170879921814901</v>
       </c>
       <c r="P6">
-        <v>1.09538756469437</v>
+        <v>0.2164844632929857</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>1.034553869838919</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8915003428561761</v>
+        <v>0.8383815041942455</v>
       </c>
       <c r="C7">
-        <v>0.07675798851257554</v>
+        <v>0.07534457710592335</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.05218573998111076</v>
+        <v>0.05046647866704923</v>
       </c>
       <c r="F7">
         <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.5937366607179086</v>
+        <v>0.5205853207020326</v>
       </c>
       <c r="H7">
-        <v>0.008269912242688943</v>
+        <v>0.006319041375754897</v>
       </c>
       <c r="I7">
-        <v>0.01247750342886533</v>
+        <v>0.009121210754456044</v>
       </c>
       <c r="J7">
-        <v>0.4845154223514712</v>
+        <v>0.4503426342295498</v>
       </c>
       <c r="K7">
-        <v>0.5141944236105438</v>
+        <v>0.4512282776925822</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2081826583434214</v>
       </c>
       <c r="M7">
-        <v>0.7638099468251198</v>
+        <v>0.1364146489374995</v>
       </c>
       <c r="N7">
-        <v>0.2183041595492767</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.7508131385812362</v>
       </c>
       <c r="P7">
-        <v>1.085223848468362</v>
+        <v>0.226061474527441</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>1.024933689118032</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.072863772572902</v>
+        <v>1.002311597780732</v>
       </c>
       <c r="C8">
-        <v>0.08920514090085163</v>
+        <v>0.08962661463841926</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.06042148464640817</v>
+        <v>0.05798073704221096</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.6180380046718312</v>
+        <v>0.5379275864093671</v>
       </c>
       <c r="H8">
-        <v>0.005582715969907448</v>
+        <v>0.004189520160254034</v>
       </c>
       <c r="I8">
-        <v>0.009239303555409251</v>
+        <v>0.006796288512103565</v>
       </c>
       <c r="J8">
-        <v>0.4899426754352447</v>
+        <v>0.4457192409501047</v>
       </c>
       <c r="K8">
-        <v>0.5220698704630813</v>
+        <v>0.4510771584615121</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2026228793822007</v>
       </c>
       <c r="M8">
-        <v>0.9238279556802809</v>
+        <v>0.1392573860318365</v>
       </c>
       <c r="N8">
-        <v>0.2603429322195012</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.902818820611003</v>
       </c>
       <c r="P8">
-        <v>1.042333202025567</v>
+        <v>0.2684454617455003</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0.9849423333074006</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.431504531278392</v>
+        <v>1.327297763569419</v>
       </c>
       <c r="C9">
-        <v>0.1135773245288334</v>
+        <v>0.11900545032087</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.07667754951639694</v>
+        <v>0.07252910445723515</v>
       </c>
       <c r="F9">
         <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>0.6733153332885848</v>
+        <v>0.5705413618662902</v>
       </c>
       <c r="H9">
-        <v>0.002022795584875281</v>
+        <v>0.001410408253370687</v>
       </c>
       <c r="I9">
-        <v>0.004505520204892477</v>
+        <v>0.003355720165719944</v>
       </c>
       <c r="J9">
-        <v>0.5050016840207121</v>
+        <v>0.4555595482446932</v>
       </c>
       <c r="K9">
-        <v>0.5422622953160854</v>
+        <v>0.457059909755003</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.194218635218224</v>
       </c>
       <c r="M9">
-        <v>1.23934387251137</v>
+        <v>0.1511026882325197</v>
       </c>
       <c r="N9">
-        <v>0.3427569018920309</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.206260102960385</v>
       </c>
       <c r="P9">
-        <v>0.9639432565554857</v>
+        <v>0.3519395746196352</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0.9129171478268558</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.678538092762267</v>
+        <v>1.546151693050632</v>
       </c>
       <c r="C10">
-        <v>0.1336886154977179</v>
+        <v>0.1411328651286397</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.08399380098778053</v>
+        <v>0.0791278033249192</v>
       </c>
       <c r="F10">
         <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>0.7024256869552374</v>
+        <v>0.5992782783054338</v>
       </c>
       <c r="H10">
-        <v>0.0008525615107592976</v>
+        <v>0.0005999694264406941</v>
       </c>
       <c r="I10">
-        <v>0.002624718239855994</v>
+        <v>0.002169963966545119</v>
       </c>
       <c r="J10">
-        <v>0.5105337970214237</v>
+        <v>0.4326196295511551</v>
       </c>
       <c r="K10">
-        <v>0.5484363019711793</v>
+        <v>0.4504388993641442</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1839697803640306</v>
       </c>
       <c r="M10">
-        <v>1.464688530005446</v>
+        <v>0.1580507998488301</v>
       </c>
       <c r="N10">
-        <v>0.3855945659902176</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.414739486737886</v>
       </c>
       <c r="P10">
-        <v>0.9064983256713322</v>
+        <v>0.3946485087128622</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0.8627292705156044</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.666777115062843</v>
+        <v>1.534337103813385</v>
       </c>
       <c r="C11">
-        <v>0.1560514718453447</v>
+        <v>0.1598377911593616</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.05388864014434169</v>
+        <v>0.0509480201847019</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.6083298507570731</v>
+        <v>0.5472217868075688</v>
       </c>
       <c r="H11">
-        <v>0.0194955277686546</v>
+        <v>0.01925708030707085</v>
       </c>
       <c r="I11">
-        <v>0.002846829145958907</v>
+        <v>0.002632432166853604</v>
       </c>
       <c r="J11">
-        <v>0.4586441527810194</v>
+        <v>0.3504145413607702</v>
       </c>
       <c r="K11">
-        <v>0.4775069444275033</v>
+        <v>0.3867546345348138</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.158694215251284</v>
       </c>
       <c r="M11">
-        <v>1.508975192830462</v>
+        <v>0.1366454588088466</v>
       </c>
       <c r="N11">
-        <v>0.2634523571485943</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.44377555875306</v>
       </c>
       <c r="P11">
-        <v>0.8698678391143186</v>
+        <v>0.2694394298307543</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0.8515609754503508</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.60921263248369</v>
+        <v>1.485302944466298</v>
       </c>
       <c r="C12">
-        <v>0.1711066314503995</v>
+        <v>0.171810181094159</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.03502482834216814</v>
+        <v>0.0332208292965035</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.5318776128196703</v>
+        <v>0.4940083912328816</v>
       </c>
       <c r="H12">
-        <v>0.05832820181657183</v>
+        <v>0.05806745487856091</v>
       </c>
       <c r="I12">
-        <v>0.002847858844760687</v>
+        <v>0.00264106335831471</v>
       </c>
       <c r="J12">
-        <v>0.4180224974987397</v>
+        <v>0.3098943344749898</v>
       </c>
       <c r="K12">
-        <v>0.4241490694912287</v>
+        <v>0.3441036707625571</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.143475090226092</v>
       </c>
       <c r="M12">
-        <v>1.499446581319319</v>
+        <v>0.1202957338117407</v>
       </c>
       <c r="N12">
-        <v>0.1714716524797595</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.429944795991872</v>
       </c>
       <c r="P12">
-        <v>0.8647729560026818</v>
+        <v>0.1756895095276221</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0.8653020169435308</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.508674649028251</v>
+        <v>1.402454332623194</v>
       </c>
       <c r="C13">
-        <v>0.1819230234747806</v>
+        <v>0.1811114872955244</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.02346935417296958</v>
+        <v>0.02240571242463218</v>
       </c>
       <c r="F13">
         <v>2.504295469238414</v>
       </c>
       <c r="G13">
-        <v>0.4604857432095031</v>
+        <v>0.4296882312663826</v>
       </c>
       <c r="H13">
-        <v>0.1143480536128862</v>
+        <v>0.1140206996496715</v>
       </c>
       <c r="I13">
-        <v>0.003080305858247812</v>
+        <v>0.002771536171182198</v>
       </c>
       <c r="J13">
-        <v>0.3815622417253195</v>
+        <v>0.2941811523823787</v>
       </c>
       <c r="K13">
-        <v>0.3781156336017375</v>
+        <v>0.3125255082950815</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1332911490457711</v>
       </c>
       <c r="M13">
-        <v>1.446438065214835</v>
+        <v>0.1065762272564079</v>
       </c>
       <c r="N13">
-        <v>0.09793084367193927</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.384323040564908</v>
       </c>
       <c r="P13">
-        <v>0.8811919302371578</v>
+        <v>0.101175636161102</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0.8930068736826158</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.418633224184106</v>
+        <v>1.328551116194888</v>
       </c>
       <c r="C14">
-        <v>0.1878289254934487</v>
+        <v>0.1867394072456818</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.01975372738462217</v>
+        <v>0.0191158208865308</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.4132849890095329</v>
+        <v>0.3817633679585413</v>
       </c>
       <c r="H14">
-        <v>0.1639412192409537</v>
+        <v>0.163541609620566</v>
       </c>
       <c r="I14">
-        <v>0.003460481124476722</v>
+        <v>0.003037143970291645</v>
       </c>
       <c r="J14">
-        <v>0.3580984963706442</v>
+        <v>0.2911353371113172</v>
       </c>
       <c r="K14">
-        <v>0.349644463796988</v>
+        <v>0.2949434801849975</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1280006713792101</v>
       </c>
       <c r="M14">
-        <v>1.38961347213376</v>
+        <v>0.09824735636415305</v>
       </c>
       <c r="N14">
-        <v>0.05794458095989796</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.337624944211541</v>
       </c>
       <c r="P14">
-        <v>0.9036683643857515</v>
+        <v>0.06074709094837516</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0.918301981146584</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.386661259140652</v>
+        <v>1.302256545987035</v>
       </c>
       <c r="C15">
-        <v>0.1884432224082815</v>
+        <v>0.1876779106648456</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.01938429833149735</v>
+        <v>0.01886157658120857</v>
       </c>
       <c r="F15">
         <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.4016037513752408</v>
+        <v>0.3679476759017319</v>
       </c>
       <c r="H15">
-        <v>0.1765618981547448</v>
+        <v>0.1761277635666971</v>
       </c>
       <c r="I15">
-        <v>0.003746685194385257</v>
+        <v>0.00328731842660801</v>
       </c>
       <c r="J15">
-        <v>0.3526493895622096</v>
+        <v>0.2933907030977352</v>
       </c>
       <c r="K15">
-        <v>0.3432364161723953</v>
+        <v>0.2917530638021919</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1271850828047949</v>
       </c>
       <c r="M15">
-        <v>1.366327725110295</v>
+        <v>0.0964367621736173</v>
       </c>
       <c r="N15">
-        <v>0.04959969312359291</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.31894317816284</v>
       </c>
       <c r="P15">
-        <v>0.9122172097381238</v>
+        <v>0.05235445445940101</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0.9257716537845511</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.301742462535913</v>
+        <v>1.232030296239742</v>
       </c>
       <c r="C16">
-        <v>0.1773835703000088</v>
+        <v>0.1797630736197391</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.01889812426564497</v>
+        <v>0.01851993544723995</v>
       </c>
       <c r="F16">
         <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.4027118288112419</v>
+        <v>0.3530384735872545</v>
       </c>
       <c r="H16">
-        <v>0.1643886731299489</v>
+        <v>0.163775915766081</v>
       </c>
       <c r="I16">
-        <v>0.004647151399197469</v>
+        <v>0.00391859297697561</v>
       </c>
       <c r="J16">
-        <v>0.3569809235469705</v>
+        <v>0.3239707786919297</v>
       </c>
       <c r="K16">
-        <v>0.349130567098527</v>
+        <v>0.3028957793585789</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1321690256226269</v>
       </c>
       <c r="M16">
-        <v>1.280586629717504</v>
+        <v>0.09869974772599299</v>
       </c>
       <c r="N16">
-        <v>0.04850643186729897</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.250896508719165</v>
       </c>
       <c r="P16">
-        <v>0.929761847541883</v>
+        <v>0.05177526974671309</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0.9300597144197553</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.2839196208121</v>
+        <v>1.215990731404787</v>
       </c>
       <c r="C17">
-        <v>0.1657813549782645</v>
+        <v>0.169944527695705</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.01972281123199626</v>
+        <v>0.01912432418708798</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.4280232715816723</v>
+        <v>0.3678000582951455</v>
       </c>
       <c r="H17">
-        <v>0.1269172089755415</v>
+        <v>0.1262049806674099</v>
       </c>
       <c r="I17">
-        <v>0.005173246819961008</v>
+        <v>0.004302187967739179</v>
       </c>
       <c r="J17">
-        <v>0.3725355908534311</v>
+        <v>0.3493947357635392</v>
       </c>
       <c r="K17">
-        <v>0.3682567621738215</v>
+        <v>0.3205903458102739</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1392188821193798</v>
       </c>
       <c r="M17">
-        <v>1.244959370995105</v>
+        <v>0.1043953147374896</v>
       </c>
       <c r="N17">
-        <v>0.06669177849332897</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.221424274724399</v>
       </c>
       <c r="P17">
-        <v>0.9309133459633259</v>
+        <v>0.07066243964327867</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0.922686874678277</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.324412648326529</v>
+        <v>1.248914161668694</v>
       </c>
       <c r="C18">
-        <v>0.1523420438771694</v>
+        <v>0.1579912722803556</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.0256618729418836</v>
+        <v>0.02437110797765296</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.4813964627858525</v>
+        <v>0.4085968564687477</v>
       </c>
       <c r="H18">
-        <v>0.07408014886245695</v>
+        <v>0.07335865987784729</v>
       </c>
       <c r="I18">
-        <v>0.005027879109151812</v>
+        <v>0.00408339814281522</v>
       </c>
       <c r="J18">
-        <v>0.4016069117401813</v>
+        <v>0.3790178037795187</v>
       </c>
       <c r="K18">
-        <v>0.4045842573554879</v>
+        <v>0.3498801623951948</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1504086963710378</v>
       </c>
       <c r="M18">
-        <v>1.248856443480008</v>
+        <v>0.1149628624155898</v>
       </c>
       <c r="N18">
-        <v>0.1137177502286093</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.22538607488238</v>
       </c>
       <c r="P18">
-        <v>0.9236456618707081</v>
+        <v>0.1188628073202125</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0.9070905898247545</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.404368502177419</v>
+        <v>1.315051159574296</v>
       </c>
       <c r="C19">
-        <v>0.1402375619747005</v>
+        <v>0.1472241401881433</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.04100729648205181</v>
+        <v>0.03853942274190203</v>
       </c>
       <c r="F19">
         <v>2.087706772602971</v>
       </c>
       <c r="G19">
-        <v>0.5544869012584996</v>
+        <v>0.4662700985193169</v>
       </c>
       <c r="H19">
-        <v>0.0284470911030823</v>
+        <v>0.02781102897726839</v>
       </c>
       <c r="I19">
-        <v>0.004899949996210573</v>
+        <v>0.004059614167709391</v>
       </c>
       <c r="J19">
-        <v>0.4396956601720632</v>
+        <v>0.4117346276487055</v>
       </c>
       <c r="K19">
-        <v>0.4536661069286083</v>
+        <v>0.3876279864477112</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1645283692019568</v>
       </c>
       <c r="M19">
-        <v>1.282441741062371</v>
+        <v>0.1291615522067495</v>
       </c>
       <c r="N19">
-        <v>0.1963418268876325</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.255440232584846</v>
       </c>
       <c r="P19">
-        <v>0.919649219660819</v>
+        <v>0.203133603687931</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0.8932061825422402</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.603471514807381</v>
+        <v>1.482292796721481</v>
       </c>
       <c r="C20">
-        <v>0.1298716259518926</v>
+        <v>0.1380992269062915</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.08144791453417</v>
+        <v>0.07660965125925046</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.6862745786211946</v>
+        <v>0.5759454389441032</v>
       </c>
       <c r="H20">
-        <v>0.001081306877011468</v>
+        <v>0.0007389062698077709</v>
       </c>
       <c r="I20">
-        <v>0.003881905684396614</v>
+        <v>0.003403975551183436</v>
       </c>
       <c r="J20">
-        <v>0.5047243304997835</v>
+        <v>0.4502569780904935</v>
       </c>
       <c r="K20">
-        <v>0.5405531983687482</v>
+        <v>0.4496030341603259</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1856789734358451</v>
       </c>
       <c r="M20">
-        <v>1.402124198247378</v>
+        <v>0.1551069318566007</v>
       </c>
       <c r="N20">
-        <v>0.3740190492490569</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.36176621568265</v>
       </c>
       <c r="P20">
-        <v>0.9194637676660342</v>
+        <v>0.3834639843385332</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0.8753649903089649</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.81585273024541</v>
+        <v>1.653582060574792</v>
       </c>
       <c r="C21">
-        <v>0.1432716805773566</v>
+        <v>0.1472179124502304</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.09410963813120077</v>
+        <v>0.08949285070124446</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.7304671178043805</v>
+        <v>0.6621677905936139</v>
       </c>
       <c r="H21">
-        <v>0.000211349562772245</v>
+        <v>0.0001113133713843695</v>
       </c>
       <c r="I21">
-        <v>0.00265274820607786</v>
+        <v>0.002640842645288188</v>
       </c>
       <c r="J21">
-        <v>0.5201291460804924</v>
+        <v>0.3692453207055024</v>
       </c>
       <c r="K21">
-        <v>0.5603093794051404</v>
+        <v>0.4423461593460019</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1773934338459746</v>
       </c>
       <c r="M21">
-        <v>1.585976810817556</v>
+        <v>0.1600075754094732</v>
       </c>
       <c r="N21">
-        <v>0.4348924296750454</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.505261936522601</v>
       </c>
       <c r="P21">
-        <v>0.8807242867678076</v>
+        <v>0.4425790682608692</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0.8386003313582489</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.951685729199198</v>
+        <v>1.761567427155143</v>
       </c>
       <c r="C22">
-        <v>0.1522786496433213</v>
+        <v>0.1529468648593735</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1002858202039612</v>
+        <v>0.09606139135641811</v>
       </c>
       <c r="F22">
         <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0.7568089287102566</v>
+        <v>0.7239510223931802</v>
       </c>
       <c r="H22">
-        <v>2.099840762914695E-05</v>
+        <v>3.779177753404639E-06</v>
       </c>
       <c r="I22">
-        <v>0.001847775772232829</v>
+        <v>0.001975681011990638</v>
       </c>
       <c r="J22">
-        <v>0.5289581438852053</v>
+        <v>0.3210860499696722</v>
       </c>
       <c r="K22">
-        <v>0.571476083991115</v>
+        <v>0.4353646043826309</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1714204599921239</v>
       </c>
       <c r="M22">
-        <v>1.704411119325044</v>
+        <v>0.1625285809047803</v>
       </c>
       <c r="N22">
-        <v>0.4653873098413328</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.59487051303168</v>
       </c>
       <c r="P22">
-        <v>0.855466687431532</v>
+        <v>0.4715756187184041</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0.8161633271154596</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.8829090359703</v>
+        <v>1.70952931763486</v>
       </c>
       <c r="C23">
-        <v>0.1468983144180243</v>
+        <v>0.1500783805269776</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.0971584601289841</v>
+        <v>0.09253988984411166</v>
       </c>
       <c r="F23">
         <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0.7456643735151829</v>
+        <v>0.6864950878820082</v>
       </c>
       <c r="H23">
-        <v>9.599626044987097E-05</v>
+        <v>4.067797726547973E-05</v>
       </c>
       <c r="I23">
-        <v>0.001926967212760644</v>
+        <v>0.001924126298231243</v>
       </c>
       <c r="J23">
-        <v>0.5257242935301178</v>
+        <v>0.3548361084245428</v>
       </c>
       <c r="K23">
-        <v>0.5677063091543459</v>
+        <v>0.4426801590681499</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1757876523988635</v>
       </c>
       <c r="M23">
-        <v>1.642352316813032</v>
+        <v>0.1626635316186018</v>
       </c>
       <c r="N23">
-        <v>0.4489295615440199</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.551809088923818</v>
       </c>
       <c r="P23">
-        <v>0.8695355676302636</v>
+        <v>0.4562177772063762</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0.8278323077182161</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.616447602495924</v>
+        <v>1.493488039877548</v>
       </c>
       <c r="C24">
-        <v>0.1277728032183347</v>
+        <v>0.1359783830955763</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.08505957072116388</v>
+        <v>0.08001818670939187</v>
       </c>
       <c r="F24">
         <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.6999825582774406</v>
+        <v>0.5868399121554546</v>
       </c>
       <c r="H24">
-        <v>0.0009057244209755844</v>
+        <v>0.0005760540143029402</v>
       </c>
       <c r="I24">
-        <v>0.003331046516994007</v>
+        <v>0.002763750793540076</v>
       </c>
       <c r="J24">
-        <v>0.5117956386186506</v>
+        <v>0.4568176416562153</v>
       </c>
       <c r="K24">
-        <v>0.5504698778964894</v>
+        <v>0.4575422320369427</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1886580582229662</v>
       </c>
       <c r="M24">
-        <v>1.406030749384712</v>
+        <v>0.1580787788729907</v>
       </c>
       <c r="N24">
-        <v>0.3870797470588769</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.365416852712571</v>
       </c>
       <c r="P24">
-        <v>0.9230882265950422</v>
+        <v>0.3967642393901372</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0.8764098560155276</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.329115658350901</v>
+        <v>1.235773169700849</v>
       </c>
       <c r="C25">
-        <v>0.1077133301035502</v>
+        <v>0.1122887474560628</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.07203436237093186</v>
+        <v>0.06829243669433183</v>
       </c>
       <c r="F25">
         <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.653412582786288</v>
+        <v>0.5540725648356357</v>
       </c>
       <c r="H25">
-        <v>0.002801033840417966</v>
+        <v>0.002003735866370149</v>
       </c>
       <c r="I25">
-        <v>0.006035947922093499</v>
+        <v>0.004651652440112564</v>
       </c>
       <c r="J25">
-        <v>0.4983458585892748</v>
+        <v>0.4572324713547289</v>
       </c>
       <c r="K25">
-        <v>0.5332134274106792</v>
+        <v>0.4535429510316504</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1957774918597401</v>
       </c>
       <c r="M25">
-        <v>1.15216918861347</v>
+        <v>0.146752479976648</v>
       </c>
       <c r="N25">
-        <v>0.3206808519593807</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.124493050895552</v>
       </c>
       <c r="P25">
-        <v>0.9834599167019471</v>
+        <v>0.3297167243171515</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.9315845724613139</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
